--- a/formated_outputs/execution_log/crossdisc/qwen/qwen-灾害预警与响应系统.xlsx
+++ b/formated_outputs/execution_log/crossdisc/qwen/qwen-灾害预警与响应系统.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>task_name</t>
   </si>
@@ -44,451 +44,542 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">人工智能教授
+</t>
+  </si>
+  <si>
     <t>Crew Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">物理学教授
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数学教授
+</t>
   </si>
   <si>
     <t xml:space="preserve">生物学教授
 </t>
   </si>
   <si>
-    <t xml:space="preserve">人工智能教授
+    <t xml:space="preserve">化学教授
 </t>
   </si>
   <si>
-    <t>根据用户提出的问题“灾害预警与响应系统”，提炼出其中核心的3-5个子问题。每个子问题应明确、具体，并适合由不同学科专家进行深入分析，子问题之间具备关联性，总共构成解决整个大问题的基础。</t>
+    <t>灾害预警与响应系统的核心组成部分是什么？这个系统的主要目标是什么？在设计这样一个系统时，应该考虑哪些关键因素？</t>
+  </si>
+  <si>
+    <t>根据灾害预警与响应系统的核心组成部分、主要目标以及设计时需要考虑的关键因素，提炼出3-5个核心子问题，每个子问题应明确、具体，并适合由不同学科专家进行深入分析。</t>
   </si>
   <si>
     <t xml:space="preserve">请委派一位学科专家，根据用户提出的问题：灾害预警与响应系统，提炼出其中核心的3-5个子问题，用中文回答。 每个子问题应明确、具体，并适合由不同学科专家进行深入分析，子问题之间具备关联性，总共构成解决整个大问题的基础。
 </t>
   </si>
   <si>
-    <t>灾害监测与预警技术的有效性与可靠性</t>
-  </si>
-  <si>
-    <t>灾害风险评估与管理策略</t>
-  </si>
-  <si>
-    <t>灾害响应与救援的协调机制</t>
-  </si>
-  <si>
-    <t>社区灾害意识与应对能力的提升</t>
-  </si>
-  <si>
-    <t>灾害预警信息的传播与公众接受度</t>
+    <t>监测系统的优化与多源数据融合</t>
+  </si>
+  <si>
+    <t>预警系统的高效性和准确性提升</t>
+  </si>
+  <si>
+    <t>信息传播系统的广泛覆盖与快速响应</t>
+  </si>
+  <si>
+    <t>应急响应机制的协调与执行</t>
+  </si>
+  <si>
+    <t>恢复重建机制的社会经济影响评估与优化</t>
   </si>
   <si>
     <t xml:space="preserve">请不同的学科专家，基于所在学科的专业知识，选择高度相关的多个子问题，进行全面深入的分析和解决，用中文回答。 给出的解决方案应足够专业，尽量具体、具备逻辑性。要求每个学科专家都进行回答，并且所有专家回答的问题集合能覆盖所有子问题。 当前主问题为：灾害预警与响应系统
 </t>
   </si>
   <si>
-    <t>基于生物学专业知识，从辅助学科的角度提供灾害预警与响应系统的补充分析，鼓励提供新的变量、机制、模型或可落地路径。具体包括：1. 灾害对生态系统的影响；2. 生物监测在灾害预警中的应用；3. 生物恢复在灾后重建中的作用。</t>
+    <t>基于生物学专业知识，提供灾害预警与响应系统中与生态恢复、生物多样性保护相关的子问题的解决方法和建议。</t>
+  </si>
+  <si>
+    <t>基于物理学专业知识，提供灾害预警与响应系统中与监测技术、数据处理算法、预警算法优化相关的子问题的解决方法和建议。</t>
+  </si>
+  <si>
+    <t>基于数学专业知识，提供灾害预警与响应系统中与风险评估模型、资源调度优化、数据融合技术相关的子问题的解决方法和建议。</t>
+  </si>
+  <si>
+    <t>基于化学专业知识，提供灾害预警与响应系统中与环境监测、物质检测、灾后恢复相关的子问题的解决方法和建议。</t>
+  </si>
+  <si>
+    <t>基于地理学专业知识，提供灾害预警与响应系统中与空间分析、地理信息系统（GIS）、区域规划相关的子问题的解决方法和建议。</t>
+  </si>
+  <si>
+    <t>基于人工智能专业知识，提供灾害预警与响应系统中与数据处理、预警算法、信息传播系统优化相关的子问题的解决方法和建议。</t>
   </si>
   <si>
     <t xml:space="preserve">请不同的学科专家，基于所在学科的专业知识，选择相关的多个子问题，从辅助学科的角度补充该子任务的解决方法，提供新的思维方式、潜在联系，用中文回答。 回答应突出你学科的独特贡献以及与已知视角之间的互补关系。 当前主问题为：灾害预警与响应系统
 </t>
   </si>
   <si>
-    <t>请评估现有遥感技术在灾害监测中的应用效果，包括数据的获取、处理和分析，以及如何通过GIS技术实现灾害信息的快速传播与可视化。</t>
-  </si>
-  <si>
-    <t>如何利用历史灾害数据和环境因子构建灾害风险评估模型？灾害风险管理策略如何与地方社会经济发展规划相结合？</t>
-  </si>
-  <si>
-    <t>灾害响应中有哪些常见的沟通障碍？如何建立高效的灾害响应协调机制来克服这些障碍？</t>
-  </si>
-  <si>
-    <t>如何通过社区教育项目提高居民对灾害的认知与应对技能？如何评估社区灾害应对能力的提升效果？</t>
-  </si>
-  <si>
-    <t>哪些信息传播渠道最适合用于灾害预警信息的传播？如何提高公众对灾害预警信息的信任度和执行率？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">请你整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，最终撰写一份项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、 “拟解决的科学问题”、 “拟提出的技术路线”、“预期成果”，要求详细介绍“拟提出的技术路线”，技术路线应该对应上研究内容的每个点，要求体现专业性和综合性，用中文回答。 当前主问题为：灾害预警与响应系统
+    <t>整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，并最终撰写一份项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、“拟解决的科学问题”、“拟提出的技术路线”、“预期成果”，要求详细介绍“拟提出的技术路线”，技术路线应该对应上研究内容的每个点，要求体现专业性和综合性，用中文回答。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">请委派一位和课题最相关的学科专家，整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，最终撰写一份项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、 “拟解决的科学问题”、 “拟提出的技术路线”、“预期成果”，要求详细介绍“拟提出的技术路线”，技术路线应该对应上研究内容的每个点，要求体现专业性和综合性，用中文回答。 当前主问题为：灾害预警与响应系统
 </t>
   </si>
   <si>
-    <t>根据“灾害预警与响应系统”这一主题，我提炼出以下核心子问题，每个子问题都适合由特定学科的专家进行深入分析，同时这些子问题之间具有紧密的关联，共同构成了整个大问题的基础：
-1. **灾害监测与预警技术的有效性与可靠性**
-   - **遥感与地理信息系统（GIS）专家**需要评估现有遥感技术在灾害监测中的应用效果，包括数据的获取、处理和分析，以及如何通过GIS技术实现灾害信息的快速可视化和空间分析。
-   - 具体问题包括：哪些遥感数据最适合用于不同类型的自然灾害监测？如何通过GIS技术实现灾害预警信息的快速传播与可视化？
-2. **灾害风险评估与管理策略**
-   - **环境科学与风险管理专家**需研究如何基于历史灾害数据和当前环境条件，评估灾害风险，制定有效的灾害管理策略。
-   - 具体问题包括：如何利用历史灾害数据和环境因子构建灾害风险评估模型？灾害风险管理策略如何与地方社会经济发展规划相结合？
-3. **灾害响应与救援的协调机制**
-   - **社会学与应急管理专家**需要探讨灾害发生时，如何实现跨部门、跨区域的快速响应与协调，确保救援资源的有效配置。
-   - 具体问题包括：灾害响应中有哪些常见的沟通障碍？如何建立高效的灾害响应协调机制来克服这些障碍？
-4. **社区灾害意识与应对能力的提升**
-   - **心理学与社区发展专家**应关注如何提高社区居民的灾害意识和自我保护能力，以及如何通过教育和培训提升社区的应对灾害的整体能力。
-   - 具体问题包括：如何通过社区教育项目提高居民对灾害的认知与应对技能？如何评估社区灾害应对能力的提升效果？
-5. **灾害预警信息的传播与公众接受度**
-   - **传播学与信息技术专家**需要研究如何通过有效的信息传播手段，使灾害预警信息能够快速、准确地传达给公众，并评估公众对这些信息的接受度和反应。
-   - 具体问题包括：哪些信息传播渠道最适合用于灾害预警信息的传播？如何提高公众对灾害预警信息的信任度和执行率？
-这些问题的探讨和解决将为构建一个高效、可靠的灾害预警与响应系统提供坚实的理论和技术支持。</t>
-  </si>
-  <si>
-    <t>根据“灾害预警与响应系统”这一主题，提炼出以下核心子问题，每个子问题都适合由特定学科的专家进行深入分析，同时这些子问题之间具有紧密的关联，共同构成了整个大问题的基础：
-1. **灾害监测与预警技术的有效性与可靠性**
-   - **遥感与地理信息系统（GIS）专家**需要评估现有遥感技术在灾害监测中的应用效果，包括数据的获取、处理和分析，以及如何通过GIS技术实现灾害信息的快速可视化和空间分析。
-   - 具体问题包括：哪些遥感数据最适合用于不同类型的自然灾害监测？如何通过GIS技术实现灾害预警信息的快速传播与可视化？
-2. **灾害风险评估与管理策略**
-   - **环境科学与风险管理专家**需研究如何基于历史灾害数据和当前环境条件，评估灾害风险，制定有效的灾害管理策略。
-   - 具体问题包括：如何利用历史灾害数据和环境因子构建灾害风险评估模型？灾害风险管理策略如何与地方社会经济发展规划相结合？
-3. **灾害响应与救援的协调机制**
-   - **社会学与应急管理专家**需要探讨灾害发生时，如何实现跨部门、跨区域的快速响应与协调，确保救援资源的有效配置。
-   - 具体问题包括：灾害响应中有哪些常见的沟通障碍？如何建立高效的灾害响应协调机制来克服这些障碍？
-4. **社区灾害意识与应对能力的提升**
-   - **心理学与社区发展专家**应关注如何提高社区居民的灾害意识和自我保护能力，以及如何通过教育和培训提升社区的应对灾害的整体能力。
-   - 具体问题包括：如何通过社区教育项目提高居民对灾害的认知与应对技能？如何评估社区灾害应对能力的提升效果？
-5. **灾害预警信息的传播与公众接受度**
-   - **传播学与信息技术专家**需要研究如何通过有效的信息传播手段，使灾害预警信息能够快速、准确地传达给公众，并评估公众对这些信息的接受度和反应。
-   - 具体问题包括：哪些信息传播渠道最适合用于灾害预警信息的传播？如何提高公众对灾害预警信息的信任度和执行率？
-这些问题的探讨和解决将为构建一个高效、可靠的灾害预警与响应系统提供坚实的理论和技术支持。</t>
-  </si>
-  <si>
-    <t>在灾害监测与预警技术方面，遥感技术和地理信息系统（GIS）技术的结合为灾害管理提供了强大的工具。以下是根据“灾害预警与响应系统”的主题，对现有遥感技术在灾害监测中的应用效果的评估，包括数据获取、处理和分析，以及如何通过GIS技术实现灾害信息的快速可视化和空间分析的详细分析。
-### 遥感数据在灾害监测中的应用
-1. **遥感数据的类型**：
-   - **光学遥感数据**：适用于监测洪水、森林火灾、土地利用变化等，如Landsat、Sentinel-2等卫星提供的数据。
-   - **雷达遥感数据**：适用于监测地表变化、滑坡、冰川运动等，如Sentinel-1、RADARSAT等卫星提供的数据，特别是在云层覆盖或夜间也能获取有效信息。
-   - **高分辨率遥感数据**：适用于城市区域的灾害监测，如WorldView、GeoEye等商业卫星提供的数据，可以提供精细的地面信息。
-   - **热红外遥感数据**：适用于监测火山活动、森林火灾等，如MODIS等卫星提供的数据，能够监测地表温度的变化。
-2. **数据获取**：
-   - **多源数据融合**：结合多种类型的遥感数据，提高监测的准确性和全面性。
-   - **实时数据传输**：利用卫星通信技术，实现灾害现场数据的实时传输，为快速响应提供支持。
-3. **数据处理与分析**：
-   - **图像处理**：包括辐射校正、几何校正、图像增强等步骤，以提高图像的质量和可分析性。
-   - **变化检测**：通过对比历史数据与当前数据，检测地表变化，如洪水淹没范围、滑坡区域等。
-   - **特征提取**：利用图像处理技术提取关键特征，如水体边界、火点位置等。
-### GIS技术在灾害预警中的应用
-1. **灾害信息的快速传播**：
-   - **在线地图服务**：通过Web GIS技术，将灾害信息实时发布到互联网，供公众和决策者查询。
-   - **移动应用**：开发手机应用程序，推送灾害预警信息，提高信息的覆盖面和响应速度。
-2. **灾害信息的可视化**：
-   - **空间分析**：利用GIS的空间分析功能，评估灾害影响范围、确定避难所位置等。
-   - **三维可视化**：结合三维GIS技术，实现灾害现场的三维重建，提供更直观的灾害场景展示。
-   - **动态模拟**：模拟灾害过程，如洪水蔓延、火灾扩散等，为灾害应对提供科学依据。
-3. **决策支持**：
-   - **风险评估**：结合历史灾害数据、地形地貌、人口分布等信息，进行灾害风险评估，为灾害预防提供支持。
-   - **应急规划**：通过GIS技术，规划应急路线、疏散方案，提高应急响应效率。
-### 结论
-综合来看，遥感技术和GIS技术在灾害监测与预警中发挥着重要作用。通过多源遥感数据的获取与处理，结合GIS的空间分析和可视化功能，可以实现灾害信息的快速传播和精准管理，提高灾害应对的效率和效果。未来，随着遥感技术的进一步发展和GIS技术的不断优化，灾害监测与预警系统将更加智能化、精细化，为保护人民生命财产安全提供更有力的保障。</t>
-  </si>
-  <si>
-    <t>在灾害风险评估与管理策略的研究中，我们可以通过以下步骤和方法来构建基于历史灾害数据和当前环境条件的灾害风险评估模型，并将灾害风险管理策略与地方社会经济发展规划相结合：
-1. **数据收集与整合**：首先，我们需要收集历史灾害数据，包括灾害发生的时间、地点、强度、影响范围以及造成的损失等信息。同时，我们也需要收集当前的环境因子数据，如地质、地形、水文、气象、植被等信息，这些数据可以通过遥感、地面观测站等方式获取。数据收集后，需要对其进行整理和标准化处理，确保不同来源的数据可以相互兼容。
-2. **灾害风险评估模型的构建**：利用统计学方法和机器学习算法，我们可以将收集到的历史灾害数据和环境因子数据进行分析，识别不同环境因子与灾害发生之间的关系。例如，可以通过逻辑回归、决策树、随机森林、支持向量机等算法建立灾害发生的预测模型，预测未来在特定环境条件下灾害发生的概率。此外，还需要构建灾害影响评估模型，评估不同等级灾害对社会经济可能造成的影响，如人员伤亡、经济损失等。
-3. **灾害风险管理策略的设计**：基于灾害风险评估模型的结果，我们可以设计出一套灾害风险管理策略。这包括灾害预防措施，如加强防灾工程建设、提高社区灾害应对能力等；灾害应急准备，如建立灾害预警系统、制定紧急疏散计划等；以及灾后恢复与重建措施，如重建基础设施、提供心理社会支持等。
-4. **与社会经济发展规划的结合**：为了确保灾害风险管理策略的有效实施，需要将这些策略与地方社会经济发展规划相结合。例如，在制定城市规划时，可以考虑将易发生灾害的区域留作绿地或公园，减少这些区域的人口和经济活动；在农业规划中，可以推广抗灾能力强的作物品种，减少灾害对农业生产的影响。此外，还可以通过政策支持和财政补贴等方式，鼓励企业和个人采取灾害预防措施，提高社会整体的灾害抵御能力。
-5. **持续监测与评估**：最后，为了确保灾害风险管理策略的有效性，需要建立一个持续的监测和评估机制。这包括对灾害风险管理措施的效果进行定期评估，以及对环境因子的变化进行监测，以便及时调整灾害风险管理策略，应对新的灾害风险。
-通过上述步骤，我们可以构建一个科学合理的灾害风险评估与管理策略体系，为地方社会经济的可持续发展提供有力支持。</t>
-  </si>
-  <si>
-    <t>在灾害风险评估与管理策略的制定过程中，我们首先需要构建一个科学合理的灾害风险评估模型。该模型应当能够综合考虑历史灾害数据和当前环境条件，以便准确评估不同地区面临的灾害风险。具体来说，可以采用以下方法和步骤：
-1. **历史灾害数据的收集与分析**：通过统计历史灾害发生的时间、地点、类型、影响范围和损失程度等数据，分析灾害发生的规律性和周期性，识别出灾害高发区域和高风险类型。
-2. **环境因子的识别与量化**：确定影响灾害发生的关键环境因子，如地形、地质、气候条件、水文特征等。利用遥感技术和地理信息系统（GIS）对这些因子进行空间分析，建立环境因子的空间分布图。
-3. **风险评估模型的构建**：基于历史灾害数据分析和环境因子量化，采用统计学方法或机器学习算法，构建灾害风险评估模型。模型应当能够计算不同地区在不同灾害类型下的风险水平，为灾害预警提供科学依据。
-4. **灾害管理策略的制定**：根据灾害风险评估结果，制定针对性的灾害预防、应对和恢复措施。这些策略应该与地方社会经济发展规划相结合，考虑经济成本和效益，确保策略的可行性和有效性。
-5. **灾害管理策略的实施与评估**：将灾害管理策略纳入地方政府的日常管理工作中，定期对策略的实施情况进行监测和评估，根据实际情况及时调整和完善。
-6. **公众参与与教育**：加强灾害风险知识的普及教育，提高公众的灾害风险意识，鼓励社区参与灾害管理，构建政府、社区和公众共同参与的灾害风险管理机制。
-通过上述方法，我们不仅能够有效地评估和管理灾害风险，还能够促进地方社会经济的可持续发展，实现环境保护与经济发展的双赢。</t>
-  </si>
-  <si>
-    <t>在灾害风险评估与管理策略的研究中，我们主要关注如何利用历史灾害数据和环境因子构建灾害风险评估模型，以及如何将灾害风险管理策略与地方社会经济发展规划相结合。这一研究不仅能够提高灾害预警与响应系统的有效性，还能够促进地方可持续发展。
-首先，构建灾害风险评估模型需要综合考虑历史灾害数据和当前环境条件。历史灾害数据包括灾害发生的频率、强度、影响范围等信息，这些数据可以帮助我们了解灾害发生的规律性，从而预测未来可能发生的灾害。环境因子则涵盖了地质、气候、水文、生态等多方面条件，通过分析这些环境因子与灾害发生之间的关系，可以进一步提高风险评估模型的准确性。在此基础上，可以使用机器学习算法，如随机森林、支持向量机等，对历史灾害数据和环境因子进行建模，以实现对灾害风险的量化评估。
-其次，将灾害风险管理策略与地方社会经济发展规划相结合，是确保灾害风险管理措施有效实施的关键。这需要将灾害风险评估的结果纳入地方发展规划中，通过调整土地利用规划、优化基础设施布局、加强应急准备和响应能力等措施，减少灾害对社会经济发展的影响。此外，还需要加强公众灾害风险意识教育，提高社会整体的灾害应对能力。在这一过程中，跨学科的合作至关重要，包括地理、环境、经济、社会学等多个领域的专家需要共同参与，确保灾害风险管理策略的科学性和可行性。
-最后，为了实现灾害风险评估与管理策略的有效实施，还需要建立一个综合性的灾害预警与响应系统。该系统应具备数据收集、模型预测、预警发布、响应协调等多种功能，通过集成各类灾害监测设施和技术手段，实现对灾害的全天候、全方位监控。同时，还需注重系统的可扩展性和开放性，使其能够随着灾害风险管理技术的发展而不断优化升级。
-综上所述，基于历史灾害数据和环境因子构建灾害风险评估模型，并将灾害风险管理策略与地方社会经济发展规划相结合，是提高灾害预警与响应系统效能的关键途径。通过跨学科合作和先进技术的应用，我们不仅能够有效评估和管理灾害风险，还能够促进地方的可持续发展。</t>
-  </si>
-  <si>
-    <t>在灾害响应与救援的过程中，实现跨部门、跨区域的快速响应与协调是至关重要的。这不仅涉及到资源的有效配置，还涉及到信息的及时传递、决策的准确性和执行的效率。在此背景下，探讨灾害响应中的沟通障碍和建立高效协调机制的方法显得尤为重要。
-首先，灾害响应中常见的沟通障碍主要包括：
-1. **信息不对称**：在灾害发生时，由于信息的收集和传递存在延迟，导致各响应单位之间信息不一致，影响决策的准确性。
-2. **跨部门协调困难**：不同部门之间由于职责划分、工作流程和文化差异，可能会出现协调不力的情况，影响救援效率。
-3. **资源分配不均**：在紧急情况下，资源的有限性和需求的迫切性可能导致资源分配不合理，影响救援活动的有效性。
-4. **技术与设备不兼容**：各区域和部门使用的技术标准和设备可能不统一，导致信息共享和协同作业困难。
-5. **法律法规限制**：不同地区和机构的法律法规差异，可能限制了跨区域救援行动的灵活性和速度。
-为克服这些障碍，建立高效的灾害响应协调机制可以从以下几个方面着手：
-1. **构建统一的灾害信息平台**：通过建立一个集成的数据交换和信息发布平台，确保所有参与灾害响应的单位能够及时获取和共享关键信息，减少信息不对称。
-2. **强化跨部门沟通与合作**：定期组织不同部门之间的交流活动，建立常态化的沟通机制，增强互信，明确各自职责，提高协调效率。
-3. **优化资源配置**：依据灾害的类型和严重程度，预先制定资源调配计划，确保资源能够在第一时间到达最需要的地方。
-4. **标准化技术和设备**：推动技术标准和设备的统一，确保在灾害响应过程中，不同单位之间可以无缝对接，提高协同作业能力。
-5. **简化法律程序**：对于跨区域的救援行动，可以设立特别的法律通道，简化审批流程，加快响应速度。
-6. **加强培训与演练**：定期对救援人员进行专业培训和实战演练，提高其应对突发事件的能力，确保在真实灾害发生时能够迅速有效地行动。
-总之，通过构建高效的灾害响应协调机制，可以极大提升灾害救援的效率，减少灾害带来的损失，保护人民的生命财产安全。这需要政府、社会和公众的共同努力，形成合力，共同构建安全和谐的社会环境。</t>
-  </si>
-  <si>
-    <t>提高社区居民的灾害意识和自我保护能力是构建韧性社区的关键。以下是我对如何通过社区教育项目提高居民对灾害的认知与应对技能，以及如何评估社区灾害应对能力提升效果的一些建议：
-1. **建立全面的灾害教育体系**：这一体系应包括定期的灾害风险评估、教育课程的设计与实施、灾害应急演练等。教育内容应当覆盖不同类型的灾害（如地震、洪水、火灾等），并且针对不同年龄段的人群制定适宜的教育内容，比如儿童可以通过游戏学习，而成人则可以通过实际案例分析来加深理解。
-2. **增强社区参与感**：鼓励社区成员积极参与到灾害管理的各个环节中来，包括灾害风险的识别、应对计划的制定、应急资源的分配等。通过建立志愿者网络，可以有效地增强社区的凝聚力和自组织能力，从而在灾害发生时更加有效地响应。
-3. **利用现代技术工具**：利用社交媒体、移动应用程序等现代技术手段，提高灾害信息的传播效率。例如，开发灾害预警手机应用程序，不仅能够及时向居民提供灾害预警信息，还可以作为教育资源，发布灾害应对知识和自救互救技巧。
-4. **开展定期的评估与反馈**：社区应定期组织灾害应对能力的自我评估，包括居民的知识水平、技能掌握程度以及应急准备情况等。评估可以采用问卷调查、模拟演练等多种形式，以便及时发现问题并加以改进。同时，对于评估中发现的问题，应及时反馈给社区成员，鼓励大家共同参与解决方案的探讨与实施。
-5. **建立长期的学习与改进机制**：灾害意识与应对能力的提升是一个持续的过程，需要通过不断的教育和实践来巩固。因此，社区应当建立一套长期的学习和改进机制，确保随着时间和环境的变化，灾害应对策略也能够随之调整和优化。
-通过上述措施，不仅可以提高社区居民对灾害的认识和防范能力，还能促进社区内部的团结合作，共同构建一个更加安全、有韧性的生活环境。</t>
-  </si>
-  <si>
-    <t>在灾害预警信息的传播与公众接受度的研究中，我们首先需要考虑的是信息传播渠道的选择。有效的信息传播渠道应具备快速、广泛覆盖、易用性等特点，以确保信息能够及时到达尽可能多的公众。在目前的技术条件下，以下几种渠道被认为是最适合用于灾害预警信息传播的：
-1. **移动设备上的应用程序**：随着智能手机的普及，通过移动应用推送灾害预警信息成为一种高效的方式。这些应用可以基于用户的位置提供个性化的预警信息，同时通过推送通知确保用户能够即时收到信息。例如，中国政府推出的“国家突发事件预警信息发布系统”移动应用。
-2. **社交媒体平台**：社交媒体平台如微博、微信等具有广泛的用户基础，且用户活跃度高，是快速传播信息的有效渠道。这些平台可以作为官方信息的补充，通过转发等方式扩大信息的覆盖范围。
-3. **广播电视系统**：虽然传统媒体的使用率有所下降，但在某些特定情况下，如大面积停电时，广播电视仍然是重要的信息传播渠道。它们可以覆盖到不使用互联网或移动设备的群体。
-4. **社区和地方公告系统**：在社区和地方层面建立公告系统，如通过广播、公告栏等方式，可以确保信息能够覆盖到本地居民，尤其是在农村和偏远地区。
-5. **多渠道整合**：为了确保信息的全面覆盖，应当采用多渠道整合的方式，利用上述多种渠道的组合优势，确保灾害预警信息能够覆盖到所有潜在的受影响群体。
-在提高公众对灾害预警信息的信任度和执行率方面，可以采取以下策略：
-1. **信息透明度**：确保预警信息的来源可靠，内容准确。政府和相关机构应当建立权威的信息发布平台，定期发布预警信息，并提供详细的灾害应对指南。
-2. **教育和培训**：加强对公众的灾害预防教育，通过学校、社区等渠道普及灾害应对知识，提高公众的自我保护意识和能力。
-3. **互动反馈机制**：建立信息反馈机制，鼓励公众报告灾害信息，参与灾害应对过程。这不仅能提高公众的参与感，还能及时收集信息，改进预警系统的效能。
-4. **案例学习**：通过分析历史灾害案例，向公众展示有效的预警信息如何帮助减少灾害损失，增强公众对预警系统的信任。
-5. **技术信任建立**：利用技术手段，如区块链技术，确保信息的不可篡改性，提高公众对信息的信任度。
-综上所述，通过选择合适的传播渠道，结合多种策略提高公众的信任度和执行率，可以有效地提升灾害预警信息的传播效果，从而更好地保护人民的生命财产安全。</t>
-  </si>
-  <si>
-    <t>### 灾害预警与响应系统的综合方案
-#### 1. 灾害监测与预警技术的有效性与可靠性
-**遥感数据在灾害监测中的应用**：
-- **光学遥感数据**：适用于监测洪水、森林火灾、土地利用变化等，如Landsat、Sentinel-2等卫星提供的数据。
-- **雷达遥感数据**：适用于监测地表变化、滑坡、冰川运动等，如Sentinel-1、RADARSAT等卫星提供的数据，特别是在云层覆盖或夜间也能获取有效信息。
-- **高分辨率遥感数据**：适用于城市区域的灾害监测，如WorldView、GeoEye等商业卫星提供的数据，可以提供精细的地面信息。
-- **热红外遥感数据**：适用于监测火山活动、森林火灾等，如MODIS等卫星提供的数据，能够监测地表温度的变化。
-**数据获取**：
-- **多源数据融合**：结合多种类型的遥感数据，提高监测的准确性和全面性。
-- **实时数据传输**：利用卫星通信技术，实现灾害现场数据的实时传输，为快速响应提供支持。
-**数据处理与分析**：
-- **图像处理**：包括辐射校正、几何校正、图像增强等步骤，以提高图像的质量和可分析性。
-- **变化检测**：通过对比历史数据与当前数据，检测地表变化，如洪水淹没范围、滑坡区域等。
-- **特征提取**：利用图像处理技术提取关键特征，如水体边界、火点位置等。
-**GIS技术在灾害预警中的应用**：
-- **灾害信息的快速传播**：通过Web GIS技术，将灾害信息实时发布到互联网，供公众和决策者查询。
-- **移动应用**：开发手机应用程序，推送灾害预警信息，提高信息的覆盖面和响应速度。
-- **灾害信息的可视化**：利用GIS的空间分析功能，评估灾害影响范围、确定避难所位置等。
-- **三维可视化**：结合三维GIS技术，实现灾害现场的三维重建，提供更直观的灾害场景展示。
-- **动态模拟**：模拟灾害过程，如洪水蔓延、火灾扩散等，为灾害应对提供科学依据。
-- **决策支持**：结合历史灾害数据、地形地貌、人口分布等信息，进行灾害风险评估，为灾害预防提供支持。
-- **应急规划**：通过GIS技术，规划应急路线、疏散方案，提高应急响应效率。
-#### 2. 灾害风险评估与管理策略
-**数据收集与整合**：
-- 收集历史灾害数据，包括灾害发生的时间、地点、类型、影响范围和损失程度等信息。
-- 收集当前的环境因子数据，如地质、地形、水文、气象、植被等信息，通过遥感、地面观测站等方式获取。
-- 对数据进行整理和标准化处理，确保不同来源的数据可以相互兼容。
-**灾害风险评估模型的构建**：
-- 利用统计学方法和机器学习算法，将历史灾害数据和环境因子数据进行分析，识别不同环境因子与灾害发生之间的关系。
-- 通过逻辑回归、决策树、随机森林、支持向量机等算法建立灾害发生的预测模型，预测未来在特定环境条件下灾害发生的概率。
-- 构建灾害影响评估模型，评估不同等级灾害对社会经济可能造成的影响，如人员伤亡、经济损失等。
-**灾害管理策略的设计**：
-- 灾害预防措施，如加强防灾工程建设、提高社区灾害应对能力等。
-- 灾害应急准备，如建立灾害预警系统、制定紧急疏散计划等。
-- 灾后恢复与重建措施，如重建基础设施、提供心理社会支持等。
-**与社会经济发展规划的结合**：
-- 在制定城市规划时，考虑将易发生灾害的区域留作绿地或公园，减少这些区域的人口和经济活动。
-- 在农业规划中，推广抗灾能力强的作物品种，减少灾害对农业生产的影响。
-- 通过政策支持和财政补贴等方式，鼓励企业和个人采取灾害预防措施，提高社会整体的灾害抵御能力。
-**持续监测与评估**：
-- 建立一个持续的监测和评估机制，对灾害风险管理措施的效果进行定期评估。
-- 对环境因子的变化进行监测，及时调整灾害风险管理策略，应对新的灾害风险。
-#### 3. 灾害响应与救援的协调机制
-**常见的沟通障碍**：
-- **信息不对称**：各响应单位之间信息不一致，影响决策的准确性。
-- **跨部门协调困难**：不同部门之间的职责划分、工作流程和文化差异，导致协调不力。
-- **资源分配不均**：资源的有限性和需求的迫切性可能导致资源分配不合理。
-- **技术与设备不兼容**：不同单位之间使用的技术标准和设备不统一，导致信息共享和协同作业困难。
-- **法律法规限制**：不同地区和机构的法律法规差异，限制了跨区域救援行动的灵活性和速度。
-**建立高效的灾害响应协调机制**：
-- **构建统一的灾害信息平台**：确保所有参与灾害响应的单位能够及时获取和共享关键信息，减少信息不对称。
-- **强化跨部门沟通与合作**：定期组织不同部门之间的交流活动，建立常态化的沟通机制，增强互信，明确各自职责，提高协调效率。
-- **优化资源配置**：依据灾害的类型和严重程度，预先制定资源调配计划，确保资源能够在第一时间到达最需要的地方。
-- **标准化技术和设备**：推动技术标准和设备的统一，确保在灾害响应过程中，不同单位之间可以无缝对接，提高协同作业能力。
-- **简化法律程序**：设立特别的法律通道，简化审批流程，加快响应速度。
-- **加强培训与演练**：定期对救援人员进行专业培训和实战演练，提高其应对突发事件的能力，确保在真实灾害发生时能够迅速有效地行动。
-#### 4. 社区灾害意识与应对能力的提升
-**建立全面的灾害教育体系**：
-- 定期进行灾害风险评估，设计和实施教育课程，组织灾害应急演练。
-- 教育内容应覆盖不同类型的灾害，针对不同年龄段的人群制定适宜的教育内容。
-**增强社区参与感**：
-- 鼓励社区成员积极参与到灾害管理的各个环节中来，包括灾害风险的识别、应对计划的制定、应急资源的分配等。
-- 通过建立志愿者网络，增强社区的凝聚力和自组织能力。
-**利用现代技术工具**：
-- 利用社交媒体、移动应用程序等现代技术手段，提高灾害信息的传播效率。
-- 开发灾害预警手机应用程序，不仅能够及时向居民提供灾害预警信息，还可以作为教育资源，发布灾害应对知识和自救互救技巧。
-**开展定期的评估与反馈**：
-- 通过问卷调查、模拟演练等多种形式，定期组织灾害应对能力的自我评估。
-- 及时反馈评估中发现的问题，鼓励社区成员共同参与解决方案的探讨与实施。
-**建立长期的学习与改进机制**：
-- 灾害意识与应对能力的提升是一个持续的过程，需要通过不断的教育和实践来巩固。
-- 建立一套长期的学习和改进机制，确保随着时间和环境的变化，灾害应对策略能够随之调整和优化。
-#### 5. 灾害预警信息的传播与公众接受度
-**信息传播渠道**：
-- **移动设备上的应用程序**：通过基于用户位置的移动应用推送灾害预警信息，确保用户能够即时收到信息。
-- **社交媒体平台**：利用微博、微信等社交媒体平台，快速传播信息。
-- **广播电视系统**：在特定情况下，如大面积停电时，广播电视仍然是重要的信息传播渠道。
-- **社区和地方公告系统**：通过广播、公告栏等方式，确保信息能够覆盖到本地居民。
-- **多渠道整合**：采用多渠道整合的方式，确保灾害预警信息能够覆盖到所有潜在的受影响群体。
-**提高公众的信任度和执行率**：
-- **信息透明度**：确保预警信息的来源可靠，内容准确，建立权威的信息发布平台。
-- **教育和培训**：通过学校、社区等渠道普及灾害应对知识，提高公众的自我保护意识和能力。
-- **互动反馈机制**：建立信息反馈机制，鼓励公众报告灾害信息，参与灾害应对过程。
-- **案例学习**：通过分析历史灾害案例，展示有效的预警信息如何帮助减少灾害损失，增强公众对预警系统的信任。
-- **技术信任建立**：利用技术手段，如区块链技术，确保信息的不可篡改性，提高公众对信息的信任度。
-综上所述，通过综合各个学科专家的意见和建议，我们可以构建一个高效、可靠的灾害预警与响应系统，有效保护人民的生命财产安全，促进社会经济的可持续发展。</t>
-  </si>
-  <si>
-    <t>### 灾害预警与响应系统的综合方案
-#### 1. 灾害对生态系统的影响
-灾害对生态系统的影响是多方面的，不仅会导致生物多样性的丧失，还会破坏生态系统的结构和功能。例如，洪水可以冲毁植被，导致土壤侵蚀，改变河流的流速和沉积物分布，从而影响水生生物的栖息地。森林火灾会烧毁大片森林，导致森林生态系统退化，影响碳循环和水循环。地震可以破坏地质结构，引发山体滑坡，影响地表水系和地下水的流动。这些影响不仅短期内对生态系统造成破坏，长期来看还会对生态系统的恢复能力和稳定性产生负面影响。
-#### 2. 生物监测在灾害预警中的应用
-生物监测是指通过观察和分析生物的行为、生理状态、种群动态等指标，来评估和预测环境变化和灾害风险。生物监测具有实时性、灵敏性和广泛性的特点，可以作为遥感和地面监测技术的重要补充。
-- **生物指标的选择**：
-  - **指示物种**：如某些鸟类、昆虫、植物对环境变化非常敏感，可以作为指示物种，监测环境变化。
-  - **生物多样性**：生物多样性的变化可以反映生态系统的健康状况，低多样性可能预示着生态系统承受的压力增加。
-  - **生物化学指标**：如植物的叶绿素含量、土壤微生物活性等，可以反映环境条件的变化。
-- **生物监测技术**：
-  - **地面观测**：通过设置监测站点，定期采集生物样本，进行实验室分析。
-  - **无人机监测**：利用无人机搭载高分辨率相机和传感器，快速获取大范围的生物数据。
-  - **遥感技术**：结合卫星遥感数据，分析植被指数、水体变化等指标，评估生态系统的健康状况。
-- **案例应用**：
-  - **森林火灾预警**：通过监测森林中的温度、湿度、可燃物负荷等指标，结合气象数据，预测火灾风险。
-  - **洪水预警**：通过监测河流水位、流速、沉积物等指标，结合气象和水文模型，预测洪水的发生和影响范围。
-  - **地震预警**：通过监测地质活动区域的生物行为变化，如动物迁徙、植物生长等，辅助地震预警。
-#### 3. 生物恢复在灾后重建中的作用
-灾后生物恢复是指通过人工干预和自然恢复相结合的方式，恢复受损生态系统的结构和功能，提高生态系统的恢复能力和稳定性。
-- **恢复策略**：
-  - **植被恢复**：通过种植本地植物、改良土壤、控制侵蚀等措施，恢复植被覆盖，改善土壤结构。
-  - **水体恢复**：通过修复水系、净化水质、恢复水生生态系统等措施，恢复水体的生态功能。
-  - **生物多样性保护**：通过保护和恢复关键物种、建立生态廊道、控制入侵物种等措施，保护和恢复生物多样性。
-  - **社区参与**：鼓励社区居民参与生态恢复项目，提高社区的生态意识和参与度。
-- **恢复技术**：
-  - **生态工程技术**：如生态护岸、生态沟渠、人工湿地等，通过模拟自然过程，恢复生态系统的功能。
-  - **生物技术**：如微生物修复、植物修复等，利用生物的自然代谢能力，去除污染物，恢复环境质量。
-  - **景观生态学**：通过优化景观结构和功能，提高生态系统的恢复能力和抵御灾害的能力。
-- **案例应用**：
-  - **森林火灾后的植被恢复**：通过种植耐火植物、控制入侵物种、恢复林下植被等措施，恢复森林生态系统的结构和功能。
-  - **洪水后的水体恢复**：通过修复河岸、建立人工湿地、净化水质等措施，恢复河流和湖泊的生态功能。
-  - **地震后的地质恢复**：通过加固滑坡区域、恢复植被覆盖、控制水土流失等措施，减少地质灾害的风险。
-### 结论
-通过综合应用生物学的专业知识，结合遥感、GIS、生态工程等技术，可以更全面地评估灾害对生态系统的影响，提高灾害预警的准确性和可靠性，促进灾后生态系统的快速恢复。这不仅有助于保护生态环境，还能提高社会对灾害的应对能力，实现可持续发展。</t>
-  </si>
-  <si>
-    <t>现有遥感技术在灾害监测中的应用效果显著，能够提供快速、准确、全面的灾害相关信息，为灾害的预警、响应和恢复提供重要支持。不同类型的自然灾害需要不同程度和类型的遥感数据，下面将详细评估遥感技术在灾害监测中的应用效果，包括数据的获取、处理和分析，以及如何通过GIS技术实现灾害信息的快速传播与可视化。
-### 1. 遥感数据的选择
-- **光学遥感数据**：适用于监测地表条件的变化，如洪水、森林火灾、植被覆盖变化等。高分辨率的光学卫星如Landsat、Sentinel-2提供的多光谱图像可以提供地表变化的详细信息。
-- **雷达遥感数据**：适用于穿透云层，提供全天候的监测能力，特别适用于热带雨林的森林火灾、滑坡、地震等地质灾害。SAR（合成孔径雷达）技术，如Sentinel-1卫星，可以提供地面形变的精确测量。
-- **热红外遥感数据**：适用于监测火点和高温区域，对于森林火灾、城市热岛效应等灾害类型尤为重要。
-- **高光谱遥感数据**：能够提供更详细的物质成分信息，适用于水质污染、土壤污染等环境灾害的监测。
-### 2. 数据的获取
-- **卫星数据**：通过国际和国内的遥感卫星获取，如中国高分系列卫星、美国Landsat系列、欧洲的Sentinel系列等。
-- **无人机数据**：在局部区域或特定灾害环境下，使用无人机搭载多光谱或热红外相机进行高精度数据采集。
-- **地面观测数据**：结合地面气象站、地震监测站等地面设施的数据，以提高遥感数据的准确性和可靠性。
-### 3. 数据的处理和分析
-- **数据预处理**：包括辐射校正、大气校正、几何校正等，确保数据的质量和可用性。
-- **变化检测**：利用时间序列分析，检测地表变化情况，如洪水泛滥区域的扩展、森林火灾的蔓延等。
-- **分类与识别**：通过图像分类技术，识别灾害类型和影响范围，如受灾植被、滑坡区域等。
-- **三维建模**：利用LiDAR数据进行三维地形建模，评估地质灾害的潜在风险。
-### 4. GIS技术实现灾害信息的快速传播与可视化
-- **空间分析**：利用GIS的空间分析功能，如缓冲区分析、网络分析等，评估灾害影响范围和路径，为救援决策提供支持。
-- **地图服务**：通过Web GIS技术，将灾害监测结果以地图服务的形式发布，实现数据的快速共享和可视化。
-- **移动应用**：开发基于GIS的移动应用，提供灾害预警信息的推送服务，确保公众能够及时了解灾害信息。
-- **决策支持系统**：构建集成遥感和GIS技术的灾害管理决策支持系统，为政府和救援机构提供科学依据和决策工具。
-综上所述，遥感技术和GIS技术在灾害监测中发挥了重要作用，通过合理选择遥感数据、高效处理和分析，结合GIS技术实现灾害信息的快速传播与可视化，能够极大地提高灾害管理的效率和效果，减少灾害带来的损失。</t>
-  </si>
-  <si>
-    <t>利用历史灾害数据和环境因子构建灾害风险评估模型，以及将灾害风险管理策略与地方社会经济发展规划相结合，是当前地理学和环境科学领域的重要研究方向。这一过程不仅需要综合应用地理信息系统（GIS）、遥感技术、统计分析方法等现代技术手段，还需要跨学科合作，结合社会、经济、生态等多个维度进行系统分析。以下是构建灾害风险评估模型和结合地方社会经济发展规划的具体步骤：
-1. **历史灾害数据的收集与整理**：首先，需要收集区域内过去发生的各种灾害事件的记录，包括灾害的类型、发生时间、地点、影响范围、损失评估等信息。这些数据可以通过查阅历史文献、政府部门的灾害记录、学术研究资料等获得。数据整理时，要确保数据的准确性和完整性，以便后续分析。
-2. **环境因子的识别与评估**：环境因子是影响灾害发生和发展的重要因素，包括地质条件（如地震带、滑坡易发区）、气候条件（如降雨量、风速）、水文条件（如河流流量、洪水频率）等。通过遥感技术和地面调查，识别并评估这些环境因子在区域内的空间分布和变化趋势。
-3. **构建空间数据库**：利用GIS技术，将收集到的历史灾害数据和评估的环境因子数据进行空间化处理，构建灾害风险管理的空间数据库。数据库应包含各种灾害类型的分布、环境因子的空间分布及其与其他要素（如人口密度、土地利用类型）的相互关系。
-4. **灾害风险评估模型的构建**：基于上述空间数据库，采用统计分析、机器学习等方法，构建灾害风险评估模型。模型应能够综合考虑历史灾害数据和环境因子的影响，评估不同区域的灾害风险等级。此外，还可以考虑引入暴露度、脆弱性等概念，进一步细化风险评估的维度。
-5. **灾害风险管理策略的制定**：根据灾害风险评估的结果，制定相应的灾害管理策略。这包括灾害预防措施（如建立预警系统、加强基础设施建设）、灾害应急响应计划（如制定疏散路径、准备救援物资）和灾后恢复重建计划（如评估损失、提供心理援助）。
-6. **与社会经济发展规划的结合**：将灾害风险管理策略融入到地方的社会经济发展规划中。例如，在城市规划中考虑灾害风险，避免在高风险区域进行大规模建设；在经济发展中优先考虑灾害防控措施的投资；在社会发展中提高公众的灾害防范意识和自救能力。
-7. **持续监测与评估**：灾害风险评估和管理是一个动态的过程，需要定期更新数据库，监测环境因子的变化，并根据新的灾害事件调整风险管理策略，以确保策略的有效性和适应性。
-通过上述步骤，可以有效地利用历史灾害数据和环境因子构建灾害风险评估模型，并将灾害风险管理策略与地方社会经济发展规划相结合，从而提高区域内的灾害应对能力和可持续发展能力。</t>
-  </si>
-  <si>
-    <t>在灾害响应中，常见的沟通障碍主要包括以下几点：
-1. 信息传递不畅：由于灾害发生时，灾区的通信设施可能受到破坏，导致信息传递不畅，影响了救援工作的及时性和有效性。
-2. 语言障碍：在国际救援中，语言差异可能导致沟通不畅，影响救援效率。
-3. 跨部门、跨区域的协调问题：不同部门或地区之间存在政策、体制、文化的差异，可能导致协作不力，影响救援工作的顺利进行。
-4. 信息不对称：在灾区和救援部门之间，存在信息不对称的问题，可能导致资源分配不合理，影响救援效果。
-5. 情绪障碍：灾害发生时，人们情绪波动较大，可能导致沟通障碍，影响救援工作的顺利进行。
-为了建立高效的灾害响应协调机制，克服上述障碍，可以采取以下措施：
-1. 建立统一的灾害信息平台：利用现代信息技术，如GIS、遥感等地理空间技术，构建统一的灾害信息平台，实现信息的快速传递和共享，确保各部门、各地区能够及时获取灾害信息，提高救援效率。
-2. 建立多语言沟通机制：在国际救援中，建立多语言沟通机制，为救援人员提供语言支持，确保沟通的顺畅。
-3. 建立跨部门、跨区域的协调机制：通过法律法规明确各部门和地区的职责，建立协调机制，确保在灾害响应中各部门、各地区能够协同工作，提高救援效率。
-4. 建立信息对称机制：通过灾害信息平台和信息共享机制，确保灾区和救援部门之间的信息对称，避免资源分配不合理的情况发生。
-5. 加强心理干预：在灾害响应中，加强心理干预，帮助灾区人民和救援人员稳定情绪，减少情绪障碍对沟通的影响。
-通过上述措施，可以有效地克服灾害响应中的沟通障碍，建立高效的灾害响应协调机制，实现跨部门、跨区域的快速响应与协调，确保救援资源的有效配置。</t>
-  </si>
-  <si>
-    <t>通过社区教育项目提高居民对灾害的认知与应对技能，首先需要设计一套全面且具有针对性的教育方案，旨在加强居民对常见灾害类型的认识，增强自我保护和互助的能力。以下是一些建议，以及如何评估这些措施的效果：
-### 教育项目的设计与实施
-1. **灾害知识普及**：组织定期的讲座和培训，邀请专家讲解不同类型的自然灾害（如地震、洪水、台风等）的特点、发生的可能性及潜在危害。利用图表、视频等多媒体材料，使内容更直观易懂。
-2. **应对技能训练**：开展实际操作演练，如火灾逃生、急救技能等，让居民在模拟环境中学习并实践应对灾害的正确方法。还可以设置紧急情况下的心理调适课程，帮助居民保持冷静，有效应对危机。
-3. **建立预警机制**：教授居民如何利用现有的预警系统，了解政府和社区提供的资源，包括紧急避难所的位置、救援物资的分配等信息。同时，鼓励居民安装相关应用程序，以便及时接收官方发布的信息。
-4. **增强社区凝聚力**：通过组织社区志愿服务活动，如清理公共区域、检查建筑安全等，增强邻里间的联系，形成互助网络。这不仅有助于提高个体的安全意识，也能促进整个社区的应对能力。
-5. **持续性学习**：建立一个长期的学习机制，比如设立社区图书角、在线学习平台等，提供灾害预防和应对的相关资料，鼓励居民不断学习新知识。
-### 评估社区灾害应对能力的提升效果
-1. **前后对比调查**：在教育项目实施前后，通过问卷调查或访谈的形式，收集居民对灾害认知水平、应对技能掌握情况的数据，分析变化趋势。
-2. **模拟演练评估**：定期举行灾难模拟演练，观察居民的实际反应，包括逃生速度、使用应急设备的能力等，记录并评估演练效果。
-3. **社区反馈**：收集社区居民、志愿者等多方反馈，了解项目实施中遇到的问题及改进建议，为进一步优化教育方案提供依据。
-4. **外部专家评审**：邀请外部专家对项目成果进行专业评审，从专业角度评估社区灾害应对能力的提升情况。
-5. **案例研究**：选取几个代表性较强的社区进行深入研究，分析其成功经验或存在的不足，为其他社区提供参考。
-通过上述措施的实施和效果评估，可以有效提高居民对灾害的认知与应对技能，同时也能促进社区整体灾害应对能力的提升。</t>
-  </si>
-  <si>
-    <t>在灾害预警信息的传播中，选择合适的传播渠道至关重要，因为这直接关系到信息的到达率、准确性和公众的信任度。以下是几种适合用于灾害预警信息传播的渠道，以及提高公众对灾害预警信息信任度和执行率的策略：
-1. **移动通信网络（短信、电话）**：移动通信网络覆盖广泛，能够迅速将预警信息传达给大量人群。尤其是在农村和偏远地区，移动通信可能是最有效的传播渠道之一。政府和相关部门可以与电信运营商合作，通过短信或电话直接向用户发送灾害预警信息。
-2. **社交媒体平台**：社交媒体平台如微博、微信等具有强大的传播力和用户基础，可以作为灾害预警信息传播的重要渠道。通过官方账号发布预警信息，利用平台的推送功能，可以迅速将信息传递给广大用户。此外，社交媒体平台还可以用于收集民众反馈，评估信息传播效果。
-3. **广播电视媒体**：广播电视媒体具有权威性和广泛的受众基础，特别是在紧急情况下，电视和广播可以迅速成为公众获取信息的重要渠道。政府可以通过广播电视媒体发布灾害预警，利用其覆盖范围广、信息传递直观的特点，提高公众的信息接收率。
-4. **社区公告和应急广播系统**：在社区层面，通过公告栏、社区广播系统等渠道发布灾害预警信息，可以确保信息覆盖到不使用或不常使用数字媒体的群体。特别是在老年人和儿童中，这种传统方式的传播效果更为显著。
-5. **应用程序（APP）**：开发专门的灾害预警应用程序，集成多种预警信息源，提供个性化、精准的灾害预警服务。应用程序可以通过推送通知、地图定位等方式，为用户提供及时、准确的预警信息。
-为了提高公众对灾害预警信息的信任度和执行率，可以采取以下措施：
-- **增强信息的权威性和透明度**：确保预警信息来自官方渠道，信息内容准确、可靠，避免误导性信息的传播。同时，公开预警信息发布的过程和依据，增强公众对信息的信任。
-- **多渠道、多形式发布信息**：利用上述多种渠道，以文字、图像、视频等多种形式发布预警信息，确保信息能够覆盖不同年龄、不同地区、不同文化背景的公众。
-- **加强公众教育和培训**：通过教育和培训提高公众的灾害应对意识和能力，使公众了解灾害预警信息的重要性，掌握正确的应对措施。这不仅包括灾害发生时的应急措施，还包括平时的预防准备。
-- **建立反馈机制**：建立灾害预警信息的反馈机制，收集公众对预警信息的反馈和建议，及时调整和优化信息传播策略。这有助于提高信息的针对性和有效性，进一步增强公众的信任度。
-- **开展模拟演习**：定期组织灾害预警模拟演习，让公众亲身体验灾害预警信息的接收和应对过程，提高公众的实际应对能力。通过演习，还可以发现信息传播和应对过程中的问题，及时改进。
-综上所述，通过选择合适的传播渠道，并采取有效的措施提高公众对灾害预警信息的信任度和执行率，可以有效提升灾害预警系统的整体效能，为保障公众安全提供有力支持。</t>
-  </si>
-  <si>
-    <t>### 灾害预警与响应系统的综合方案
-#### 摘要
-本项目旨在构建一个高效、可靠的灾害预警与响应系统，通过综合应用遥感技术、GIS、环境科学、社会学、心理学和信息技术等多学科的知识和技术，提高灾害管理的效率和效果，减少灾害带来的损失，保护人民的生命财产安全，促进社会经济的可持续发展。
-#### 研究背景和意义
-自然灾害频发，对人类社会和自然环境造成重大影响。有效的灾害预警与响应系统是减轻灾害损失的关键。本项目通过多学科的综合研究，旨在提高灾害监测的准确性、灾害风险评估的科学性、灾害响应的协调性和社区应对能力的提升，构建一个系统性的灾害管理解决方案。
-#### 研究内容
-1. **灾害监测与预警技术的有效性与可靠性**
-2. **灾害风险评估与管理策略**
-3. **灾害响应与救援的协调机制**
-4. **社区灾害意识与应对能力的提升**
-5. **灾害预警信息的传播与公众接受度**
-#### 拟解决的科学问题
-1. 如何利用遥感技术和GIS技术实现灾害信息的快速获取、处理和传播？
-2. 如何基于历史灾害数据和环境因子构建灾害风险评估模型？
-3. 如何建立高效的灾害响应协调机制，确保救援资源的有效配置？
-4. 如何通过社区教育项目提高居民的灾害意识和应对能力？
-5. 如何选择合适的传播渠道，提高公众对灾害预警信息的信任度和执行率？
-#### 拟提出的技术路线
-1. **灾害监测与预警技术的有效性与可靠性**
-   - **遥感数据的选择**：光学遥感数据、雷达遥感数据、热红外遥感数据、高光谱遥感数据。
-   - **数据的获取**：卫星数据、无人机数据、地面观测数据。
-   - **数据的处理和分析**：数据预处理、变化检测、分类与识别、三维建模。
-   - **GIS技术实现灾害信息的快速传播与可视化**：空间分析、地图服务、移动应用、决策支持系统。
-2. **灾害风险评估与管理策略**
-   - **历史灾害数据的收集与整理**：收集灾害类型、发生时间、地点、影响范围、损失评估等信息。
-   - **环境因子的识别与评估**：地质条件、气候条件、水文条件等。
-   - **构建空间数据库**：利用GIS技术，将数据进行空间化处理。
-   - **灾害风险评估模型的构建**：统计分析、机器学习等方法。
-   - **灾害风险管理策略的制定**：预防措施、应急响应计划、灾后恢复重建计划。
-   - **与社会经济发展规划的结合**：城市规划、经济发展、社会发展中考虑灾害风险。
-3. **灾害响应与救援的协调机制**
-   - **常见的沟通障碍**：信息传递不畅、语言障碍、跨部门协调问题、信息不对称、情绪障碍。
-   - **建立高效的灾害响应协调机制**：统一的灾害信息平台、多语言沟通机制、跨部门协调机制、信息对称机制、心理干预。
-4. **社区灾害意识与应对能力的提升**
-   - **教育项目的设计与实施**：灾害知识普及、应对技能训练、建立预警机制、增强社区凝聚力、持续性学习。
-   - **评估社区灾害应对能力的提升效果**：前后对比调查、模拟演练评估、社区反馈、外部专家评审、案例研究。
-5. **灾害预警信息的传播与公众接受度**
-   - **信息传播渠道**：移动通信网络（短信、电话）、社交媒体平台（微博、微信等）、广播电视媒体、社区公告和应急广播系统、应用程序（APP）。
-   - **提高公众的信任度和执行率**：增强信息的权威性和透明度、多渠道多形式发布信息、加强公众教育和培训、建立反馈机制、开展模拟演习。
-#### 预期成果
-1. **技术成果**：开发一套集成遥感技术和GIS的灾害监测与预警系统，构建灾害风险评估模型，建立高效的灾害响应协调机制，开发灾害预警应用程序。
-2. **管理成果**：制定一套科学的灾害风险管理策略，提高社区的灾害应对能力，提高公众对灾害预警信息的信任度和执行率。
-3. **社会影响**：减少灾害带来的损失，保护人民的生命财产安全，促进社会经济的可持续发展。
-综上所述，通过综合各个学科专家的意见和建议，我们可以构建一个高效、可靠的灾害预警与响应系统，有效保护人民的生命财产安全，促进社会经济的可持续发展。</t>
+    <t>灾害预警与响应系统的核心组成部分主要包括以下几个方面：
+1. 监测系统：通过卫星遥感、地面监测站、气象雷达等手段，实时监测各种可能引发灾害的自然环境变化，如地震、洪水、台风、滑坡等。监测系统是预警系统的基础，它能够提供灾害发生的先兆信息。
+2. 预警系统：基于监测到的数据，利用数学模型、物理模型和经验模型等对灾害发生的可能性进行评估，当达到某个阈值时，能够及时向相关部门和社会公众发出警报。预警系统的准确性、及时性和可靠性对于减少灾害损失至关重要。
+3. 信息传播系统：确保预警信息能够快速、有效地传达给所有需要知道的人，包括政府决策者、应急管理部门、公众等。信息传播系统应具备多渠道传播能力，如电视、广播、互联网、手机短信等，以确保信息覆盖广泛。
+4. 应急响应机制：在灾害发生时，迅速启动应急响应机制，组织救援队伍、调配救援物资、指导灾民疏散安置等。应急响应机制需要提前规划，确保在紧急情况下能够快速行动。
+5. 恢复重建机制：灾害发生后的恢复重建是灾害响应的重要组成部分，包括对受损基础设施的修复、灾后社会秩序的恢复、心理援助等。恢复重建机制需要考虑长远，促进受灾地区社会经济的可持续发展。
+这个系统的主要目标是减少自然灾害对人类社会的影响，保护人民生命财产安全，增强社会的灾害抵御能力。具体而言，目标包括提高灾害预警的准确性、及时性，增强公众的灾害防范意识，减少人员伤亡和财产损失，以及加速灾后恢复进程。
+在设计这样一个系统时，应该考虑以下几个关键因素：
+- 科技支持：采用先进的监测技术、数据处理技术和通信技术，确保系统的高效运作。
+- 信息共享：建立跨部门、跨领域的信息共享平台，提高灾害预警与响应的协调性和有效性。
+- 社会参与：鼓励社会公众参与灾害预警与响应的各个环节，提高全社会的灾害应对能力。
+- 法律框架：建立健全的法律政策体系，为灾害预警与响应提供法律保障。
+- 教育培训：加强对公众的灾害知识教育和应急技能培训，提高个体在灾害中的自救互救能力。
+- 经济可行性：在设计系统时还需考虑其经济成本，确保系统的可持续运行。
+综上所述，一个有效的灾害预警与响应系统不仅需要先进的技术支撑，还需要多方面的合作和支持，以实现最大限度地减轻自然灾害对人类社会的影响。</t>
+  </si>
+  <si>
+    <t>1. **监测系统的优化与多源数据融合**：如何通过集成不同类型的监测设备（如气象站、卫星遥感、地表传感器等）和数据源，提高灾害监测的准确性和实时性？此问题需考虑监测技术的最新进展、数据处理算法、数据融合技术以及监测系统的可扩展性和可靠性。适合由气象学、遥感技术和数据科学领域的专家进行深入分析。
+2. **预警系统的高效性和准确性提升**：如何在确保预警信息准确性的前提下，缩短预警时间，以实现灾害预警的即时响应？此问题涉及预警算法的优化、风险评估模型的改进、以及预警阈值的科学设定等。适合由计算机科学、统计学和风险评估领域的专家进行深入分析。
+3. **信息传播系统的广泛覆盖与快速响应**：如何构建一个能够快速、广泛地将预警信息传达给所有可能受影响人群的系统？需考虑不同传播渠道（如手机短信、社交媒体、广播、电视等）的有效性、信息传播的可靠性、以及在技术有限或基础设施受损情况下的备用方案。适合由通信工程、社会学和媒体研究领域的专家进行深入分析。
+4. **应急响应机制的协调与执行**：如何确保在灾害发生时，各相关部门和机构能够快速有效地协同工作，执行应急响应计划？此问题涉及应急响应预案的制定、指挥系统的建立、资源调度的优化、以及人员培训和演练等。适合由应急管理、公共管理和物流管理领域的专家进行深入分析。
+5. **恢复重建机制的社会经济影响评估与优化**：如何评估灾害后恢复重建活动对当地社会经济的影响，并在此基础上优化恢复重建策略，促进社会的长期可持续发展？此问题需考虑灾后重建的经济成本、社会心理影响、环境可持续性、以及社区参与度等。适合由经济学、社会学、环境科学和城市规划领域的专家进行深入分析。
+这些核心子问题不仅涵盖了灾害预警与响应系统的关键组成部分，还考虑到了实现系统目标需要解决的技术、社会、法律和经济等多方面因素，有助于推动跨学科合作，共同提升灾害管理的科学性和有效性。</t>
+  </si>
+  <si>
+    <t>优化监测系统并实现多源数据融合是提高灾害监测准确性和实时性的关键。这需要综合考虑最新的监测技术、数据处理算法、数据融合技术以及系统的可扩展性和可靠性。以下是具体建议：
+1. **集成多种监测设备**：使用气象站、卫星遥感、地表传感器等不同类型的设备，可以提供互补的信息，增强监测系统的全面性和准确性。例如，卫星遥感能够提供大范围的观测数据，而地面气象站和传感器则能提供高精度的局部数据。
+2. **利用最新的监测技术**：随着技术的发展，监测设备的精度和可靠性不断提高。如高分辨率卫星、无人机（UAV）、物联网（IoT）传感器等新兴技术的应用，可以有效提升灾害监测的能力。例如，无人机可以在灾害发生时快速进入受影响区域，收集实时的高清影像，为决策提供支持。
+3. **数据处理与分析算法**：采用先进的数据处理和分析算法，如机器学习和人工智能技术，能够从大量监测数据中提取有价值的信息。这些算法可以帮助识别灾害发生的前兆，预测灾害的影响范围，从而提高预警的准确性。
+4. **数据融合技术**：数据融合技术是将来自不同源的数据综合处理，以生成更全面、更准确的信息。这可以通过多传感器数据融合算法实现，如卡尔曼滤波、贝叶斯网络等，这些方法能够有效减少数据的不确定性，提高监测系统的性能。
+5. **系统的可扩展性和可靠性**：为了确保监测系统的长期有效性和适应性，需要设计具备良好可扩展性和可靠性的系统架构。一方面，通过模块化设计，系统可以随着技术进步和需求变化轻松添加新的设备和数据源；另一方面，通过冗余设计和故障恢复机制，确保系统在部分组件失效时仍能正常运行。
+6. **标准化与互操作性**：为了实现多源数据的有效融合，需要建立数据标准和协议，确保不同来源的数据能够无缝对接。这包括数据格式、传输协议、数据质量控制等方面的标准制定。
+7. **跨学科合作与应用**：灾害监测是一个复杂的系统工程，需要地理学、气象学、环境科学、信息技术等多个学科的合作。通过建立跨学科的研究团队，可以更好地整合各领域的知识和技术，开发出更为高效和智能的监测系统。
+综上所述，通过集成多种监测设备、利用最新技术、优化数据处理与融合方法、确保系统的可扩展性和可靠性，能够显著提升灾害监测的准确性和实时性，为灾害预防和应急响应提供坚实的技术支持。</t>
+  </si>
+  <si>
+    <t>在确保预警信息准确性的前提下缩短预警时间，以实现灾害预警的即时响应，是一项涉及多个方面的复杂任务。首先，从预警算法的优化入手，我们可以采用机器学习和深度学习等先进的技术手段，通过训练模型来识别灾害发生前的微弱信号，提高预警系统的敏感度。特别是在大数据环境下，可以通过对历史数据的深度挖掘和模式识别，训练出能够有效区分真警报和假警报的模型，从而减少误报率，提高预警的准确性。
+其次，改进风险评估模型也是提升预警系统性能的关键。传统的风险评估模型往往基于静态的数据和固定的参数，这种模式在面对不断变化的灾害环境时显得力不从心。因此，需要开发能够实时更新评估参数的动态风险评估模型，结合实时数据流进行分析，以适应灾害发生的动态变化，更准确地评估灾害风险。
+再次，科学设定预警阈值对于减少预警系统的误报和漏报同样重要。预警阈值的设定应该基于对灾害特性的深入了解和对历史数据的统计分析，同时考虑不同地区和不同灾害类型的特点。采用自适应阈值设定方法，根据实际情况动态调整阈值，以达到最佳的预警效果。例如，在多发灾害地区，可以根据季节性变化和历史灾害发生频率动态调整预警阈值，而在灾害发生较少的地区，则可以采用更严格的阈值标准。
+此外，加强预警系统的集成性和协同性也是提升预警效率和准确性的重要措施。通过建立跨部门、跨领域的预警信息共享平台，实现数据的互联互通，可以有效提高灾害预警的响应速度和处理能力。同时，利用先进的通信技术，如5G通信网络，可以确保预警信息的快速传递和广泛覆盖，特别是在偏远地区和灾害高发区，这对于实现灾害预警的即时响应至关重要。
+最后，考虑到灾害预警不仅是技术问题，还涉及到社会管理和公众教育等多个方面，因此，还需要加强预警知识的公众教育和普及工作，提高公众对灾害预警信息的认识和响应能力。通过建立有效的预警信息发布渠道，确保预警信息能够及时、准确地传达给公众，从而减少灾害造成的损失。
+综上所述，通过优化预警算法、改进风险评估模型、科学设定预警阈值、加强系统集成性和协同性以及提升公众响应能力，可以在确保预警信息准确性的前提下，有效缩短预警时间，实现灾害预警的即时响应。这些措施的实施需要跨学科的合作和持续的技术创新，以应对日益复杂的灾害预警挑战。</t>
+  </si>
+  <si>
+    <t>构建一个能够快速、广泛地将预警信息传达给所有可能受影响人群的系统，需要综合考虑多种因素，以确保信息的高效传播和接收。以下是一个基于物理学原理和多学科交叉视角的系统设计方案，旨在提高信息传播的覆盖率和响应速度：
+1. **多渠道信息传播平台的构建**：
+   - **手机短信**：利用现有的移动通信网络，构建一个能够快速发送预警短信的系统。考虑到手机的普及率，这是最直接有效的传播方式之一。系统需要具备高并发处理能力，确保在紧急情况下信息能够迅速送达每一个用户。
+   - **社交媒体**：利用微博、微信等社交平台的广泛影响力，通过官方账号快速发布预警信息。社交网络的病毒式传播特点，有助于信息的快速扩散。
+   - **广播和电视**：与广播电台和电视台建立合作机制，在紧急情况下，通过广播和电视连续滚动播出预警信息。对于信息接收不便的老人和儿童，这是非常重要的补充渠道。
+   - **互联网平台**：开发专门的移动应用程序和网站，用于发布和查询预警信息。利用互联网平台的交互性，可以提高信息的可访问性和实用性。
+2. **信息传播的可靠性保障**：
+   - **冗余机制**：建立信息传播的多重渠道，确保即使某一种渠道失效，其他渠道也能继续发挥作用。例如，即便移动网络中断，广播和电视仍能继续工作。
+   - **信息校验**：采用加密技术和数字签名，确保发布的信息不被篡改，提高信息的可信度。同时，设置反馈机制，接收方可以报告接收到的信息，以验证信息的传播效果。
+   - **用户验证**：对于重要的预警信息，通过用户验证机制，比如需要用户确认已阅读信息，确保信息的有效接收。
+3. **技术有限或基础设施受损情况下的备用方案**：
+   - **卫星通信**：在地面通信基础设施受损的情况下，利用卫星通信作为备用通信手段。卫星通信不依赖地面设施，可以实现大范围的信息覆盖。
+   - **应急广播系统**：建立独立于电网的应急广播系统，使用太阳能或电池供电，确保在电力中断时仍能正常工作。
+   - **社区预警系统**：在社区层面建立预警系统，利用简易的音响设备、警报器等，通过社区志愿者或当地权威机构进行信息传达。这种系统在技术条件有限的地区尤为重要。
+4. **基于复杂系统理论的优化**：
+   - **网络拓扑优化**：根据社会网络理论，对信息传播网络进行优化，提高信息传播的效率。例如，通过分析社交网络中的关键节点，优先向这些节点发送信息，利用其影响力加速信息扩散。
+   - **动态响应模型**：构建动态响应模型，根据实际情况调整信息传播策略。例如，在灾害发生初期，可能需要更频繁地更新信息，而在灾害稳定后，信息的更新频率可以适当降低。
+   - **用户行为分析**：利用大数据和人工智能技术，分析用户的行为模式，预测用户的信息接收习惯，从而优化信息传播的时间和方式。
+通过上述综合措施，可以构建一个快速、可靠、广泛覆盖的预警信息传播系统，确保在紧急情况下，信息能够及时准确地传达到每一个需要的人。</t>
+  </si>
+  <si>
+    <t>在确保灾害发生时，各相关部门和机构能够快速有效地协同工作，执行应急响应计划方面，我们可以从以下几个方面着手：
+1. 制定详尽的应急预案：应急预案应当包括灾害类型识别、风险评估、响应级别划分、应急响应流程、资源分配等关键要素。预案应明确各相关部门和机构的职责，确保所有可能的灾害情景都有对应的应对措施。
+2. 建立高效的指挥系统：指挥系统应当是多层次、跨部门的，确保决策层能够迅速下达指令，执行层能够迅速响应。可以采用扁平化管理减少沟通层级，提高决策与执行的效率。同时，确保指挥系统在灾害发生时能够迅速启动，并具备与外界沟通的能力。
+3. 优化资源调度：通过对历史灾害数据的分析，利用数学模型（如线性规划、图论等）对资源分配进行优化，确保在灾害发生时能够最合理地利用现有资源。建立动态资源调度机制，根据灾害发展情况调整资源分配策略。
+4. 强化人员培训和演练：定期对相关人员进行应急响应的理论知识和技能培训，提高他们在实际操作中的应对能力和团队协作能力。通过模拟演练，检验应急预案的可行性和实用性，及时发现并解决问题。
+5. 信息共享与沟通机制：建立一套完善的信息共享平台，确保各相关部门和机构能够及时获得灾害信息、资源状态等关键数据。同时，确保指挥系统与公众之间的信息沟通渠道畅通，提高公众的灾害防范意识和自救互救能力。
+6. 法律法规支持：确保应急响应机制的实施有相应的法律法规支撑，明确各方权利义务，为应急响应提供法律保障。同时，定期对相关法律法规进行评估和修订，确保其适应不断变化的社会环境。
+7. 跨学科合作与科技创新：鼓励科研机构与政府部门的合作，通过引入新技术（如大数据、人工智能等）提高灾害预测的准确性，优化应急响应策略。同时，促进跨学科研究，为应急响应机制的完善提供理论支持和技术手段。
+通过上述措施的实施，可以有效提升各相关部门和机构在灾害发生时的协同工作能力和应急响应效率，为保障人民生命财产安全和社会稳定做出贡献。</t>
+  </si>
+  <si>
+    <t>在评估灾害后恢复重建活动对当地社会经济的影响时，需要采取多学科综合的方法，确保从经济、社会、环境和社区参与等多个角度全面考量。以下是评估和优化恢复重建策略的具体步骤：
+1. **数据收集与分析**：
+   - **经济成本**：评估直接和间接经济损失，包括基础设施、住宅、商业设施的损毁，以及因灾害造成的生产力下降。使用GIS技术可以精准定位受灾区域，进行空间经济分析。
+   - **社会心理影响**：通过问卷调查、深度访谈和社区会议等方式，收集居民在灾后的生活状况、心理健康状态和社会关系的变化。
+   - **环境可持续性**：监测和评估灾害对生态系统的影响，如水质、土壤肥力和生物多样性等。使用遥感技术可以进行大范围的环境监测。
+   - **社区参与度**：考察灾后恢复过程中社区居民的参与情况，包括决策过程、资源的分配和使用等。
+2. **影响评估**：
+   - **经济影响评估**：计算恢复重建的成本效益比，分析不同恢复方案的经济可行性。
+   - **社会影响评估**：分析灾后重建对社区结构、社会关系和社会凝聚力的影响。
+   - **环境影响评估**：评估恢复活动对环境的长期影响，确保恢复活动不会导致新的环境问题。
+   - **社区参与评估**：评估社区居民在恢复活动中的满意度和参与度，确保恢复过程的透明和公正。
+3. **策略优化**：
+   - **经济策略**：制定经济激励措施，吸引外部投资，促进当地产业升级和经济多元化。
+   - **社会策略**：加强心理援助和社会支持，尤其是对弱势群体的关注，如儿童、老人和残疾人。
+   - **环境策略**：采用生态恢复方法，如植被恢复和湿地重建，增强生态系统的韧性。
+   - **社区参与策略**：建立多利益相关者平台，确保社区居民在恢复决策中的参与，提高恢复活动的社区认同感。
+4. **监测与反馈**：
+   - **建立监测体系**：通过定期的经济、社会和环境监测，跟踪恢复活动的效果。
+   - **反馈机制**：建立有效的反馈机制，及时调整恢复策略，确保恢复活动能够适应变化的环境和社会需求。
+通过以上步骤，我们不仅能够全面评估灾害后恢复重建活动对当地社会经济的影响，还能够在此基础上优化恢复重建策略，促进社会的长期可持续发展。这需要多学科的合作和持续的监测与评估，确保恢复活动能够产生积极的长期影响。</t>
+  </si>
+  <si>
+    <t>**灾害预警与响应系统**
+1. **监测系统的优化与多源数据融合**：
+   - **集成多种监测设备**：使用气象站、卫星遥感、地表传感器等不同类型的设备，可以提供互补的信息，增强监测系统的全面性和准确性。例如，卫星遥感能够提供大范围的观测数据，而地面气象站和传感器则能提供高精度的局部数据。
+   - **利用最新的监测技术**：随着技术的发展，监测设备的精度和可靠性不断提高。如高分辨率卫星、无人机（UAV）、物联网（IoT）传感器等新兴技术的应用，可以有效提升灾害监测的能力。例如，无人机可以在灾害发生时快速进入受影响区域，收集实时的高清影像，为决策提供支持。
+   - **数据处理与分析算法**：采用先进的数据处理和分析算法，如机器学习和人工智能技术，能够从大量监测数据中提取有价值的信息。这些算法可以帮助识别灾害发生的前兆，预测灾害的影响范围，从而提高预警的准确性。
+   - **数据融合技术**：数据融合技术是将来自不同源的数据综合处理，以生成更全面、更准确的信息。这可以通过多传感器数据融合算法实现，如卡尔曼滤波、贝叶斯网络等，这些方法能够有效减少数据的不确定性，提高监测系统的性能。
+   - **系统的可扩展性和可靠性**：为了确保监测系统的长期有效性和适应性，需要设计具备良好可扩展性和可靠性的系统架构。一方面，通过模块化设计，系统可以随着技术进步和需求变化轻松添加新的设备和数据源；另一方面，通过冗余设计和故障恢复机制，确保系统在部分组件失效时仍能正常运行。
+   - **标准化与互操作性**：为了实现多源数据的有效融合，需要建立数据标准和协议，确保不同来源的数据能够无缝对接。这包括数据格式、传输协议、数据质量控制等方面的标准制定。
+   - **跨学科合作与应用**：灾害监测是一个复杂的系统工程，需要地理学、气象学、环境科学、信息技术等多个学科的合作。通过建立跨学科的研究团队，可以更好地整合各领域的知识和技术，开发出更为高效和智能的监测系统。
+2. **预警系统的高效性和准确性提升**：
+   - **优化预警算法**：采用机器学习和深度学习等先进的技术手段，通过训练模型来识别灾害发生前的微弱信号，提高预警系统的敏感度。特别是在大数据环境下，可以通过对历史数据的深度挖掘和模式识别，训练出能够有效区分真警报和假警报的模型，从而减少误报率，提高预警的准确性。
+   - **改进风险评估模型**：传统的风险评估模型往往基于静态的数据和固定的参数，这种模式在面对不断变化的灾害环境时显得力不从心。因此，需要开发能够实时更新评估参数的动态风险评估模型，结合实时数据流进行分析，以适应灾害发生的动态变化，更准确地评估灾害风险。
+   - **科学设定预警阈值**：预警阈值的设定应该基于对灾害特性的深入了解和对历史数据的统计分析，同时考虑不同地区和不同灾害类型的特点。采用自适应阈值设定方法，根据实际情况动态调整阈值，以达到最佳的预警效果。例如，在多发灾害地区，可以根据季节性变化和历史灾害发生频率动态调整预警阈值，而在灾害发生较少的地区，则可以采用更严格的阈值标准。
+   - **加强预警系统的集成性和协同性**：通过建立跨部门、跨领域的预警信息共享平台，实现数据的互联互通，可以有效提高灾害预警的响应速度和处理能力。同时，利用先进的通信技术，如5G通信网络，可以确保预警信息的快速传递和广泛覆盖，特别是在偏远地区和灾害高发区，这对于实现灾害预警的即时响应至关重要。
+   - **加强预警知识的公众教育和普及**：通过建立有效的预警信息发布渠道，确保预警信息能够及时、准确地传达给公众，从而减少灾害造成的损失。
+3. **信息传播系统的广泛覆盖与快速响应**：
+   - **多渠道信息传播平台的构建**：
+     - **手机短信**：利用现有的移动通信网络，构建一个能够快速发送预警短信的系统。考虑到手机的普及率，这是最直接有效的传播方式之一。系统需要具备高并发处理能力，确保在紧急情况下信息能够迅速送达每一个用户。
+     - **社交媒体**：利用微博、微信等社交平台的广泛影响力，通过官方账号快速发布预警信息。社交网络的病毒式传播特点，有助于信息的快速扩散。
+     - **广播和电视**：与广播电台和电视台建立合作机制，在紧急情况下，通过广播和电视连续滚动播出预警信息。对于信息接收不便的老人和儿童，这是非常重要的补充渠道。
+     - **互联网平台**：开发专门的移动应用程序和网站，用于发布和查询预警信息。利用互联网平台的交互性，可以提高信息的可访问性和实用性。
+   - **信息传播的可靠性保障**：
+     - **冗余机制**：建立信息传播的多重渠道，确保即使某一种渠道失效，其他渠道也能继续发挥作用。例如，即便移动网络中断，广播和电视仍能继续工作。
+     - **信息校验**：采用加密技术和数字签名，确保发布的信息不被篡改，提高信息的可信度。同时，设置反馈机制，接收方可以报告接收到的信息，以验证信息的传播效果。
+     - **用户验证**：对于重要的预警信息，通过用户验证机制，比如需要用户确认已阅读信息，确保信息的有效接收。
+   - **技术有限或基础设施受损情况下的备用方案**：
+     - **卫星通信**：在地面通信基础设施受损的情况下，利用卫星通信作为备用通信手段。卫星通信不依赖地面设施，可以实现大范围的信息覆盖。
+     - **应急广播系统**：建立独立于电网的应急广播系统，使用太阳能或电池供电，确保在电力中断时仍能正常工作。
+     - **社区预警系统**：在社区层面建立预警系统，利用简易的音响设备、警报器等，通过社区志愿者或当地权威机构进行信息传达。这种系统在技术条件有限的地区尤为重要。
+   - **基于复杂系统理论的优化**：
+     - **网络拓扑优化**：根据社会网络理论，对信息传播网络进行优化，提高信息传播的效率。例如，通过分析社交网络中的关键节点，优先向这些节点发送信息，利用其影响力加速信息扩散。
+     - **动态响应模型**：构建动态响应模型，根据实际情况调整信息传播策略。例如，在灾害发生初期，可能需要更频繁地更新信息，而在灾害稳定后，信息的更新频率可以适当降低。
+     - **用户行为分析**：利用大数据和人工智能技术，分析用户的行为模式，预测用户的信息接收习惯，从而优化信息传播的时间和方式。
+4. **应急响应机制的协调与执行**：
+   - **制定详尽的应急预案**：应急预案应当包括灾害类型识别、风险评估、响应级别划分、应急响应流程、资源分配等关键要素。预案应明确各相关部门和机构的职责，确保所有可能的灾害情景都有对应的应对措施。
+   - **建立高效的指挥系统**：指挥系统应当是多层次、跨部门的，确保决策层能够迅速下达指令，执行层能够迅速响应。可以采用扁平化管理减少沟通层级，提高决策与执行的效率。同时，确保指挥系统在灾害发生时能够迅速启动，并具备与外界沟通的能力。
+   - **优化资源调度**：通过对历史灾害数据的分析，利用数学模型（如线性规划、图论等）对资源分配进行优化，确保在灾害发生时能够最合理地利用现有资源。建立动态资源调度机制，根据灾害发展情况调整资源分配策略。
+   - **强化人员培训和演练**：定期对相关人员进行应急响应的理论知识和技能培训，提高他们在实际操作中的应对能力和团队协作能力。通过模拟演练，检验应急预案的可行性和实用性，及时发现并解决问题。
+   - **信息共享与沟通机制**：建立一套完善的信息共享平台，确保各相关部门和机构能够及时获得灾害信息、资源状态等关键数据。同时，确保指挥系统与公众之间的信息沟通渠道畅通，提高公众的灾害防范意识和自救互救能力。
+   - **法律法规支持**：确保应急响应机制的实施有相应的法律法规支撑，明确各方权利义务，为应急响应提供法律保障。同时，定期对相关法律法规进行评估和修订，确保其适应不断变化的社会环境。
+   - **跨学科合作与科技创新**：鼓励科研机构与政府部门的合作，通过引入新技术（如大数据、人工智能等）提高灾害预测的准确性，优化应急响应策略。同时，促进跨学科研究，为应急响应机制的完善提供理论支持和技术手段。
+5. **恢复重建机制的社会经济影响评估与优化**：
+   - **数据收集与分析**：
+     - **经济成本**：评估直接和间接经济损失，包括基础设施、住宅、商业设施的损毁，以及因灾害造成的生产力下降。使用GIS技术可以精准定位受灾区域，进行空间经济分析。
+     - **社会心理影响**：通过问卷调查、深度访谈和社区会议等方式，收集居民在灾后的生活状况、心理健康状态和社会关系的变化。
+     - **环境可持续性**：监测和评估灾害对生态系统的影响，如水质、土壤肥力和生物多样性等。使用遥感技术可以进行大范围的环境监测。
+     - **社区参与度**：考察灾后恢复过程中社区居民的参与情况，包括决策过程、资源的分配和使用等。
+   - **影响评估**：
+     - **经济影响评估**：计算恢复重建的成本效益比，分析不同恢复方案的经济可行性。
+     - **社会影响评估**：分析灾后重建对社区结构、社会关系和社会凝聚力的影响。
+     - **环境影响评估**：评估恢复活动对环境的长期影响，确保恢复活动不会导致新的环境问题。
+     - **社区参与评估**：评估社区居民在恢复活动中的满意度和参与度，确保恢复过程的透明和公正。
+   - **策略优化**：
+     - **经济策略**：制定经济激励措施，吸引外部投资，促进当地产业升级和经济多元化。
+     - **社会策略**：加强心理援助和社会支持，尤其是对弱势群体的关注，如儿童、老人和残疾人。
+     - **环境策略**：采用生态恢复方法，如植被恢复和湿地重建，增强生态系统的韧性。
+     - **社区参与策略**：建立多利益相关者平台，确保社区居民在恢复决策中的参与，提高恢复活动的社区认同感。
+   - **监测与反馈**：
+     - **建立监测体系**：通过定期的经济、社会和环境监测，跟踪恢复活动的效果。
+     - **反馈机制**：建立有效的反馈机制，及时调整恢复策略，确保恢复活动能够适应变化的环境和社会需求。
+通过上述综合措施，可以构建一个全面、高效、可靠的灾害预警与响应系统，确保在灾害发生时，能够及时、准确地进行监测、预警、信息传播、应急响应和恢复重建，最大限度地减少灾害对社会经济的影响，促进社会的长期可持续发展。这需要多学科的合作和持续的技术创新，以应对日益复杂的灾害预警和响应挑战。</t>
+  </si>
+  <si>
+    <t>在灾害预警与响应系统中，生态恢复和生物多样性保护是至关重要的组成部分。这些方面不仅关系到自然生态系统的健康与稳定，也直接影响到人类社会的可持续发展。以下是从生物学角度提出的解决方法和建议：
+1. **生态恢复中的多物种监测与数据融合**：
+   - 引入遗传学和分子生物学技术，如环境DNA（eDNA）监测，用于快速检测和评估受灾害影响区域的物种多样性和分布。这可以提供更细致和准确的物种信息，有助于优化恢复方案。
+   - 利用遥感技术和地理信息系统（GIS），结合地面调查数据，建立综合的生态系统健康评估模型。通过多源数据融合，可以实现对生态系统状态的全面监测，为灾害预警提供科学依据。
+2. **生物多样性保护的预警机制加强**：
+   - 开发基于生态学原理的预警指标体系，包括关键物种的动态变化、生态系统功能的指标变化等。这些指标可以作为早期预警信号，帮助提前采取保护措施。
+   - 引入人工智能和机器学习技术，构建生物多样性保护的预测模型。这些模型可以基于历史数据和当前监测数据，预测未来一段时间内生态系统的变化趋势，为决策者提供科学建议。
+3. **信息传播与快速响应的生物多样性视角**：
+   - 建立生物多样性信息传播网络，利用社交媒体、移动应用等现代通信手段，提高公众对生物多样性保护的认识和参与度。同时，通过这些渠道快速传播灾害预警信息，确保信息的有效覆盖。
+   - 培训和组织志愿者参与生物多样性监测和保护工作，形成社区层面的快速响应机制。志愿者可以在灾害发生后迅速收集信息，为恢复工作提供支持。
+4. **应急响应机制中的生态学考虑**：
+   - 在应急响应方案中纳入生态恢复的具体措施，如临时栖息地的建立、受损生态系统的紧急修复等。这些措施可以减少灾害对生物多样性的影响，加快生态系统的恢复。
+   - 强化跨部门合作，确保环境保护部门、灾害管理部门和科研机构之间的信息共享和协同行动。这样可以更有效地制定和执行生态恢复和生物多样性保护的应急响应计划。
+5. **恢复重建中的社会经济与生态效益评估**：
+   - 采用生态经济学方法，评估恢复重建措施对生态系统服务价值的影响。这包括对水资源管理、土壤保持、碳固定等方面效益的评估，确保恢复措施的多效益实现。
+   - 开展长期的生态监测项目，跟踪恢复重建措施的效果。这些监测数据不仅可以用于评估当前措施的效果，还可以为未来的灾害应对提供宝贵的参考信息。
+通过上述方法和建议，可以将生态恢复和生物多样性保护更有效地融入灾害预警与响应系统的各个阶段，实现自然与社会的和谐发展。</t>
+  </si>
+  <si>
+    <t>在灾害预警与响应系统中，从物理学角度出发，特别是在监测技术、数据处理算法、预警算法优化方面，我们可以通过引入新的变量、机制、模型或实施路径来提升系统的效能。以下是针对上述子问题的一些具体建议和解决方法：
+### 1. 监测系统的优化与多源数据融合
+- **多物理场监测技术的集成**：利用电磁场、重力场、声波场等不同物理场的监测数据，结合地球物理学原理，提高灾害前兆信号的检测灵敏度和识别精度。例如，通过地面微震监测与卫星遥感技术的结合，可以更准确地预测地震、火山爆发等地质灾害。
+- **多尺度模型的构建**：开发从微观到宏观尺度的多尺度模型，以捕捉灾害发生前的细微变化。利用分子动力学、连续介质力学等方法，建立灾害动力学模型，为灾害风险评估提供理论依据。
+- **数据同化技术**：采用数据同化方法，如变分数据同化、卡尔曼滤波等，将多源观测数据与物理模型相结合，实现实时、高精度的数据更新，增强灾害监测系统的适应性。
+### 2. 预警系统的高效性和准确性提升
+- **基于物理机制的预警模型**：建立基于物理机制的灾害预警模型，如利用流体力学模型预测洪水、利用热力学模型评估森林火灾风险等，提高预警的科学性和准确性。
+- **机器学习与物理模型的融合**：将机器学习技术与物理模型相结合，利用深度学习算法挖掘灾害发生前的复杂模式，同时保持预测结果的物理可解释性。
+- **实时动态调整算法**：开发能够根据实时监测数据动态调整预测参数的算法，确保预警系统的响应速度和预测精度。
+### 3. 信息传播系统的广泛覆盖与快速响应
+- **信息传播的物理模型**：基于信息论和网络理论，研究信息在网络中的传播规律，优化信息传播路径，提高信息的传播效率和覆盖范围。
+- **多模态通信技术**：结合电信号、光信号、声信号等多种通信手段，构建多模态信息传播系统，确保在不同环境条件下的信息传输可靠性。
+### 4. 应急响应机制的协调与执行
+- **物理模拟与仿真**：利用计算物理学方法，如分子动力学模拟、有限元分析等，模拟灾害发生时的物理过程，为应急响应策略的制定提供依据。
+- **动态资源分配模型**：基于运筹学方法，建立灾害应急资源的动态分配模型，确保资源在时间和空间上的最优配置，提高救援效率。
+### 5. 恢复重建机制的社会经济影响评估与优化
+- **灾害影响的量化分析**：利用物理学中的能量守恒、熵增原理等，对灾害的社会经济影响进行量化分析，评估灾害造成的直接和间接损失。
+- **恢复重建的物理模型**：构建基于物理过程的恢复重建模型，如房屋结构的稳定性分析、交通网络的恢复策略等，为科学规划恢复重建提供技术支持。
+综上所述，通过引入物理学中的理论和技术，可以显著提升灾害预警与响应系统的性能，增强人类面对自然灾害的能力。</t>
+  </si>
+  <si>
+    <t>在灾害预警与响应系统中，风险评估模型、资源调度优化、数据融合技术是至关重要的组成部分。下面我将从这几个方面提供具体的解决方法和建议：
+1. **风险评估模型**：
+   - **多因素综合评估模型**：构建一个基于权重的多因素综合评估模型，可以考虑的因素包括但不限于地理因素、气象条件、历史灾害记录、社会经济状况等。使用层次分析法（AHP）确定各因素的权重，进而计算出综合风险指数。通过不断更新和校准模型，提高风险评估的准确性和可靠性。
+   - **动态风险评估**：引入时间序列分析，将风险评估模型设计为动态模型，通过实时数据更新模型参数，以适应环境变化对风险水平的影响。可以使用ARIMA模型或者状态空间模型来实现这种动态评估。
+   - **不确定性分析**：在风险评估模型中引入概率论和统计学方法，例如蒙特卡洛模拟，以量化不确定性，提供风险评估的置信区间，帮助决策者理解潜在的风险范围。
+2. **资源调度优化**：
+   - **多目标优化模型**：在资源调度问题中，考虑到时间、成本、效率等多方面的目标，可以构建一个基于线性规划或非线性规划的多目标优化模型，使用遗传算法、粒子群优化算法等智能优化算法求解最优解。
+   - **动态资源分配机制**：开发一个实时更新的资源分配系统，该系统能够根据当前灾害的发展情况动态调整资源分配策略。可以采用排队论中的模型来优化资源的分配效率，例如M/M/c模型。
+   - **协同响应机制**：通过建立响应主体间的通信协调机制，确保在灾害发生时各主体能够快速有效地协同工作。可以使用图论中的匹配算法来优化不同响应主体之间的合作模式。
+3. **数据融合技术**：
+   - **多源数据融合框架**：设计一个多源数据融合框架，集成地面传感器数据、卫星遥感数据、社交媒体数据等，使用贝叶斯网络或集成学习方法来提高数据融合的精度和鲁棒性。
+   - **数据预处理**：在数据融合前，需要对数据进行预处理，包括数据清洗、缺失值处理、数据标准化等，以确保数据的质量。可以采用主成分分析（PCA）等方法降低数据维度，提高处理效率。
+   - **实时数据融合**：在灾害预警与响应系统中，实时性要求非常高。因此，需要开发一套高效的实时数据融合系统，采用流处理技术如Apache Storm或Spark Streaming，确保数据处理的实时性和准确性。
+综上所述，通过上述方法和建议，可以从数学的角度为灾害预警与响应系统的优化提供有力的支持。这些模型和技术的引入和应用，不仅能够提高灾害预警的准确性和响应的效率，还能够在一定程度上减少灾害带来的损失，促进灾后恢复的顺利进行。</t>
+  </si>
+  <si>
+    <t>在灾害预警与响应系统中，从数学角度出发，可以提供多种方法和建议来解决与风险评估模型、资源调度优化、数据融合技术相关的子问题。以下是针对这几个方面的详细解决方案：
+### 1. 风险评估模型
+#### 多因素综合评估模型
+- **建立综合评估指标体系**：综合考虑自然灾害的种类、强度、地理位置、人口密度、经济水平、基础设施等多个因子，构建多层次、多维度的评估指标体系。
+- **使用层次分析法（AHP）**：确定各评估指标的权重，通过专家打分和数学计算，得出各区域的风险等级。
+- **概率风险评估模型**：基于历史数据和灾害发生的概率模型，如泊松过程、极值理论等，预测未来灾害发生的概率和可能造成的损失。
+#### 动态风险评估
+- **引入时间维度**：考虑灾害发生前后的动态变化，建立动态风险评估模型，利用马尔可夫链或状态空间模型来预测风险的演变趋势。
+- **实时数据更新**：通过传感器网络获取实时环境数据，结合天气预报等外部信息，动态调整风险评估结果。
+### 2. 资源调度优化
+#### 多目标优化模型
+- **定义优化目标**：包括最大化救援效率、最小化救援成本、最优化资源配置等。
+- **使用遗传算法或粒子群优化算法**：解决多目标优化问题，通过模拟自然选择或鸟群行为，寻找最优或近优的资源配置方案。
+- **考虑不确定性**：引入鲁棒优化方法，确保在不确定环境下资源调度方案的稳定性。
+#### 动态资源分配机制
+- **建立动态资源分配模型**：考虑灾害发生后的紧急需求变化，构建动态资源分配模型，如基于时变网络的流模型。
+- **实时调度系统**：开发实时调度系统，利用优化算法快速响应紧急变化，调整资源分配方案。
+### 3. 数据融合技术
+#### 多源数据融合框架
+- **数据预处理**：对来自不同传感器、卫星、社交媒体等多源数据进行标准化处理，包括数据清洗、格式转换、缺失值处理等。
+- **数据融合算法**：采用卡尔曼滤波、贝叶斯网络、神经网络等方法，对多源数据进行融合，提高数据的准确性和可靠性。
+- **不确定性建模**：考虑数据来源的不确定性和噪声，通过概率模型或模糊逻辑方法，提高融合结果的鲁棒性。
+#### 信息传播模型
+- **社会网络分析**：利用社会网络分析方法，研究信息在不同群体之间的传播路径和速度。
+- **信息扩散模型**：构建信息扩散模型，如SI模型、SIR模型，预测信息传播的范围和影响。
+- **优化信息传播策略**：通过优化算法，设计信息传播策略，确保信息的快速、有效传播。
+### 综合应用与落地路径
+- **跨学科合作**：与地理、气象、计算机科学等领域的专家合作，共同研发多源数据融合技术和优化模型。
+- **技术平台开发**：开发综合性的灾害预警与响应技术平台，集成风险评估、资源调度、数据融合等功能。
+- **案例研究与实践**：选择典型灾害案例，进行模型验证和应用实践，不断优化模型参数和算法性能。
+- **政策支持与培训**：争取政策支持，开展相关人员的技术培训，提高灾害预警与响应系统的实施效果。
+通过上述方法和建议，可以有效提升灾害预警与响应系统的性能，提高灾害管理的科学化、精准化水平。</t>
+  </si>
+  <si>
+    <t>在灾害预警与响应系统中，化学学科可以为环境监测、物质检测和灾后恢复提供重要的技术支持。以下是针对具体子问题的化学解决方案和建议：
+### 1. 监测系统的优化与多源数据融合
+- **新型环境监测传感器的开发**：利用纳米技术制备高灵敏度、高选择性的化学传感器，如基于金属氧化物半导体（MOX）的气体传感器，以及基于表面增强拉曼散射（SERS）技术的污染物检测芯片。这些传感器可以实现对环境中有害化学物质的快速、准确检测。
+- **多源数据融合技术**：采用化学计量学方法，如主成分分析（PCA）和偏最小二乘法（PLS），对来自不同传感器的数据进行融合处理，提高监测系统的整体性能和可靠性。
+### 2. 预警系统的高效性和准确性提升
+- **智能化学预警模型**：结合化学反应动力学模型和机器学习算法，开发能够预测化学物质释放和扩散模式的智能预警系统。通过对历史数据的学习，该系统可以更准确地预测灾害发生时化学物质的影响范围和程度。
+- **实时监测与反馈机制**：建立基于物联网技术的实时监测网络，通过无线通信技术将监测数据即时传输至中央处理系统，快速响应异常情况，减少预警时间。
+### 3. 信息传播系统的广泛覆盖与快速响应
+- **化学信息传播载体**：开发能够携带化学监测信息的新型材料，如荧光纳米颗粒或智能墨水，这些材料可以在特定条件下改变颜色或发光，用于快速标识污染区域或危险化学品的存在。
+- **社区参与机制**：通过化学教育和培训，提高公众对化学灾害的认识和应对能力，使社区成员能够成为信息传播的重要节点，增强信息传播的广泛性和有效性。
+### 4. 应急响应机制的协调与执行
+- **化学物质应急处理包**：设计包含多种化学试剂和工具的应急处理包，用于现场快速中和或抑制危险化学物质，减少次生灾害的发生。
+- **灾害现场化学分析设备**：开发便携式化学分析设备，如手持式FTIR（傅里叶变换红外光谱仪）和便携式XRF（X射线荧光光谱仪），用于灾害现场的即时化学分析，为应急决策提供科学依据。
+### 5. 恢复重建机制的社会经济影响评估与优化
+- **环境修复技术**：研究和应用先进的环境修复技术，如光催化降解、生物修复和化学还原等方法，用于治理受污染的土地和水体，促进环境的自然恢复。
+- **化学品生命周期评估**：采用生命周期评估（LCA）方法，评估化学品在生产、使用和废弃过程中的环境和社会经济影响，为灾后化学品管理提供科学依据，促进可持续恢复。
+通过上述化学领域的创新和技术应用，可以显著提升灾害预警与响应系统的性能，确保在灾害发生时能够更快速、准确地进行监测、预警、响应和恢复，减少灾害对环境和社会的影响。</t>
+  </si>
+  <si>
+    <t>在灾害预警与响应系统中，空间分析、地理信息系统（GIS）和区域规划扮演着至关重要的角色。以下是针对您提到的五个子问题的解决方法和建议：
+1. **监测系统的优化与多源数据融合**：
+   - **增强遥感技术的应用**：利用高分辨率卫星图像和无人机航拍数据，提高灾害前后的监测精度。结合地面观测数据，如雨量计、地震计等，形成天-地一体化的监测体系。
+   - **多源数据融合与分析**：开发多源数据融合模型，整合遥感、气象、水文、地质等多类型数据，通过机器学习算法提高数据的解释能力和预测精度。
+   - **实时数据处理平台**：构建基于云计算的实时数据处理平台，实现对灾害数据的快速处理和分析，为决策提供及时支持。
+2. **预警系统的高效性和准确性提升**：
+   - **空间预测模型的构建**：基于历史灾害数据和地理环境因素，建立空间预测模型。例如，运用GIS技术分析历史洪水淹没范围，结合地形、土壤类型等因素，预测未来可能的洪水风险区域。
+   - **动态风险评估**：利用GIS和空间分析技术，动态评估灾害风险等级，根据实时气象数据和灾害模型预测，及时调整预警等级。
+   - **公众参与机制**：建立灾害预警APP，鼓励公众参与灾害信息的上报和反馈，提高预警系统的社会响应能力。
+3. **信息传播系统的广泛覆盖与快速响应**：
+   - **多媒体信息发布平台**：结合广播、电视、互联网、移动通讯等多种渠道，构建多模态的信息传播网络，确保灾害预警信息能够迅速、广泛地传播。
+   - **地理定位技术**：利用GPS和移动互联网技术，向特定区域内的居民发送精准的灾害预警信息，提高信息传达的针对性和有效性。
+4. **应急响应机制的协调与执行**：
+   - **GIS支持下的应急资源调度**：构建应急资源数据库，包括救援队伍、医疗资源、物资储备等，通过GIS技术优化资源调度路径，提高应急响应的效率。
+   - **模拟演练与评估**：利用GIS和仿真技术，进行灾害应急响应的模拟演练，评估不同情景下的应急响应效果，不断优化应急预案。
+5. **恢复重建机制的社会经济影响评估与优化**：
+   - **社会经济影响评估模型**：开发基于GIS的社会经济影响评估模型，考虑不同灾后重建方案对当地经济、社会、生态的影响，为政策制定提供科学依据。
+   - **空间规划与风险管理**：在灾后重建中，结合GIS技术，进行科学的空间规划，合理布局基础设施和居民区，强化防灾减灾设施的建设，降低未来灾害风险。
+   - **可持续发展路径**：在重建过程中，注重可持续发展原则，保护自然环境，促进绿色经济的发展，提高社区的灾害韧性。
+以上建议从空间分析、地理信息系统（GIS）和区域规划的角度，为灾害预警与响应系统提供了全面的解决方案，旨在提高系统的效率、准确性和社会响应能力，促进灾后恢复重建的科学性和可持续性。</t>
+  </si>
+  <si>
+    <t>在灾害预警与响应系统中，人工智能技术可以发挥重要作用，特别是在数据处理、预警算法和信息传播系统优化方面。以下是我针对这三个方面的具体建议：
+1. **监测系统的优化与多源数据融合**
+   - **多模态数据融合**：利用深度学习中的多模态融合技术，将来自不同传感器的数据（如卫星图像、地面传感器数据、社交媒体信息等）进行综合分析。例如，可以使用卷积神经网络（CNN）处理图像数据，长短时记忆网络（LSTM）处理时间序列数据，然后通过多模态融合模型如注意力机制（Attention Mechanism）来提高数据的综合利用率和准确性。
+   - **异常检测算法**：开发基于机器学习的异常检测算法，如自编码器（Autoencoder）或孤立森林（Isolation Forest），用于实时监测数据流中的异常模式，及时发现潜在的灾害迹象。
+   - **数据预处理与清洗**：利用自然语言处理（NLP）技术对社交媒体数据进行情感分析和关键词提取，帮助快速识别和过滤掉无关或低质量的信息，提高数据的可用性。
+2. **预警系统的高效性和准确性提升**
+   - **深度学习模型**：构建基于深度学习的预警模型，如LSTM或Transformer模型，用于预测灾害的发生时间和影响范围。这些模型可以处理长时间的历史数据，捕捉时间序列中的复杂模式，提高预警的准确性。
+   - **集成学习方法**：采用集成学习方法，如随机森林（Random Forest）或梯度提升树（Gradient Boosting Trees），通过结合多个模型的预测结果，提高系统的鲁棒性和准确性。
+   - **实时优化**：引入在线学习机制，使预警系统能够根据最新的数据不断优化模型参数，提高系统的适应性和响应速度。
+3. **信息传播系统的广泛覆盖与快速响应**
+   - **多平台信息传播**：利用自然语言处理技术，开发自动化的信息生成和传播系统，能够在多个平台上（如社交媒体、新闻媒体、移动应用等）快速发布和更新灾害信息，确保信息的广泛覆盖。
+   - **个性化推送**：通过用户画像技术，分析用户的位置、兴趣和偏好，实现灾害信息的个性化推送，提高信息的针对性和有效性。
+   - **多语言支持**：利用机器翻译技术，确保灾害信息能够以多种语言形式发布，覆盖不同语言背景的用户群体，提高信息的可及性和理解度。
+   - **社区参与机制**：建立社区参与机制，鼓励用户通过移动应用或社交媒体平台报告灾害信息，利用众包数据提高系统的实时性和准确性。
+综上所述，通过应用深度学习、自然语言处理和多模态数据融合等人工智能技术，可以显著提升灾害预警与响应系统的性能，提高数据处理的效率、预警的准确性和信息传播的广泛性与快速性。这不仅有助于减少灾害带来的损失，还能提高社会的整体应对能力。</t>
+  </si>
+  <si>
+    <t>在灾害预警与响应系统中，多学科合作是确保系统全面、高效、可靠的关键。以下是各学科专家提供的具体解决方法和建议，从不同的角度提供了新的变量、机制、模型或可落地路径。
+### 1. 监测系统的优化与多源数据融合
+#### 生物学视角
+- **多物种监测与数据融合**：引入环境DNA（eDNA）监测技术，快速检测和评估受灾害影响区域的物种多样性和分布。结合遥感技术和地面调查数据，建立综合的生态系统健康评估模型。
+#### 物理学视角
+- **多物理场监测技术**：利用电磁场、重力场、声波场等不同物理场的监测数据，结合地球物理学原理，提高灾害前兆信号的检测灵敏度和识别精度。
+- **多尺度模型**：开发从微观到宏观尺度的多尺度模型，捕捉灾害发生前的细微变化。
+- **数据同化技术**：采用数据同化方法，如变分数据同化、卡尔曼滤波等，将多源观测数据与物理模型相结合，实现实时、高精度的数据更新。
+#### 数学视角
+- **多源数据融合框架**：使用主成分分析（PCA）和偏最小二乘法（PLS）等化学计量学方法，对来自不同传感器的数据进行融合处理，提高监测系统的整体性能和可靠性。
+#### 化学视角
+- **新型环境监测传感器**：利用纳米技术制备高灵敏度、高选择性的化学传感器，如基于金属氧化物半导体（MOX）的气体传感器，以及基于表面增强拉曼散射（SERS）技术的污染物检测芯片。
+- **多源数据融合技术**：采用化学计量学方法，如主成分分析（PCA）和偏最小二乘法（PLS），对来自不同传感器的数据进行融合处理，提高监测系统的整体性能和可靠性。
+#### 地理学视角
+- **增强遥感技术的应用**：利用高分辨率卫星图像和无人机航拍数据，提高灾害前后的监测精度。结合地面观测数据，如雨量计、地震计等，形成天-地一体化的监测体系。
+- **多源数据融合与分析**：开发多源数据融合模型，整合遥感、气象、水文、地质等多类型数据，通过机器学习算法提高数据的解释能力和预测精度。
+#### 人工智能视角
+- **多模态数据融合**：利用深度学习中的多模态融合技术，将来自不同传感器的数据（如卫星图像、地面传感器数据、社交媒体信息等）进行综合分析。例如，可以使用卷积神经网络（CNN）处理图像数据，长短时记忆网络（LSTM）处理时间序列数据，然后通过多模态融合模型如注意力机制（Attention Mechanism）来提高数据的综合利用率和准确性。
+- **异常检测算法**：开发基于机器学习的异常检测算法，如自编码器（Autoencoder）或孤立森林（Isolation Forest），用于实时监测数据流中的异常模式，及时发现潜在的灾害迹象。
+### 2. 预警系统的高效性和准确性提升
+#### 生物学视角
+- **生物多样性保护的预警机制**：开发基于生态学原理的预警指标体系，包括关键物种的动态变化、生态系统功能的指标变化等。这些指标可以作为早期预警信号，帮助提前采取保护措施。
+#### 物理学视角
+- **基于物理机制的预警模型**：建立基于物理机制的灾害预警模型，如利用流体力学模型预测洪水、利用热力学模型评估森林火灾风险等，提高预警的科学性和准确性。
+- **实时动态调整算法**：开发能够根据实时监测数据动态调整预测参数的算法，确保预警系统的响应速度和预测精度。
+#### 数学视角
+- **多目标优化模型**：在资源调度问题中，考虑到时间、成本、效率等多方面的目标，可以构建一个基于线性规划或非线性规划的多目标优化模型，使用遗传算法、粒子群优化算法等智能优化算法求解最优解。
+- **动态资源分配机制**：开发一个实时更新的资源分配系统，该系统能够根据当前灾害的发展情况动态调整资源分配策略。
+#### 化学视角
+- **智能化学预警模型**：结合化学反应动力学模型和机器学习算法，开发能够预测化学物质释放和扩散模式的智能预警系统。通过对历史数据的学习，该系统可以更准确地预测灾害发生时化学物质的影响范围和程度。
+#### 地理学视角
+- **空间预测模型的构建**：基于历史灾害数据和地理环境因素，建立空间预测模型。例如，运用GIS技术分析历史洪水淹没范围，结合地形、土壤类型等因素，预测未来可能的洪水风险区域。
+- **动态风险评估**：利用GIS和空间分析技术，动态评估灾害风险等级，根据实时气象数据和灾害模型预测，及时调整预警等级。
+#### 人工智能视角
+- **深度学习模型**：构建基于深度学习的预警模型，如LSTM或Transformer模型，用于预测灾害的发生时间和影响范围。这些模型可以处理长时间的历史数据，捕捉时间序列中的复杂模式，提高预警的准确性。
+- **集成学习方法**：采用集成学习方法，如随机森林（Random Forest）或梯度提升树（Gradient Boosting Trees），通过结合多个模型的预测结果，提高系统的鲁棒性和准确性。
+### 3. 信息传播系统的广泛覆盖与快速响应
+#### 生物学视角
+- **生物多样性信息传播网络**：建立生物多样性信息传播网络，利用社交媒体、移动应用等现代通信手段，提高公众对生物多样性保护的认识和参与度。同时，通过这些渠道快速传播灾害预警信息，确保信息的有效覆盖。
+#### 物理学视角
+- **信息传播的物理模型**：基于信息论和网络理论，研究信息在网络中的传播规律，优化信息传播路径，提高信息的传播效率和覆盖范围。
+- **多模态通信技术**：结合电信号、光信号、声信号等多种通信手段，构建多模态信息传播系统，确保在不同环境条件下的信息传输可靠性。
+#### 数学视角
+- **社会网络分析**：利用社会网络分析方法，研究信息在不同群体之间的传播路径和速度。
+- **信息扩散模型**：构建信息扩散模型，如SI模型、SIR模型，预测信息传播的范围和影响。
+#### 化学视角
+- **化学信息传播载体**：开发能够携带化学监测信息的新型材料，如荧光纳米颗粒或智能墨水，这些材料可以在特定条件下改变颜色或发光，用于快速标识污染区域或危险化学品的存在。
+#### 地理学视角
+- **多媒体信息发布平台**：结合广播、电视、互联网、移动通讯等多种渠道，构建多模态的信息传播网络，确保灾害预警信息能够迅速、广泛地传播。
+- **地理定位技术**：利用GPS和移动互联网技术，向特定区域内的居民发送精准的灾害预警信息，提高信息传达的针对性和有效性。
+#### 人工智能视角
+- **多平台信息传播**：利用自然语言处理技术，开发自动化的信息生成和传播系统，能够在多个平台上（如社交媒体、新闻媒体、移动应用等）快速发布和更新灾害信息，确保信息的广泛覆盖。
+- **个性化推送**：通过用户画像技术，分析用户的位置、兴趣和偏好，实现灾害信息的个性化推送，提高信息的针对性和有效性。
+- **多语言支持**：利用机器翻译技术，确保灾害信息能够以多种语言形式发布，覆盖不同语言背景的用户群体，提高信息的可及性和理解度。
+- **社区参与机制**：建立社区参与机制，鼓励用户通过移动应用或社交媒体平台报告灾害信息，利用众包数据提高系统的实时性和准确性。
+### 4. 应急响应机制的协调与执行
+#### 生物学视角
+- **生态恢复中的应急响应**：在应急响应方案中纳入生态恢复的具体措施，如临时栖息地的建立、受损生态系统的紧急修复等，减少灾害对生物多样性的影响，加快生态系统的恢复。
+#### 物理学视角
+- **物理模拟与仿真**：利用计算物理学方法，如分子动力学模拟、有限元分析等，模拟灾害发生时的物理过程，为应急响应策略的制定提供依据。
+- **动态资源分配模型**：基于运筹学方法，建立灾害应急资源的动态分配模型，确保资源在时间和空间上的最优配置，提高救援效率。
+#### 数学视角
+- **GIS支持下的应急资源调度**：构建应急资源数据库，包括救援队伍、医疗资源、物资储备等，通过GIS技术优化资源调度路径，提高应急响应的效率。
+- **模拟演练与评估**：利用GIS和仿真技术，进行灾害应急响应的模拟演练，评估不同情景下的应急响应效果，不断优化应急预案。
+#### 化学视角
+- **化学物质应急处理包**：设计包含多种化学试剂和工具的应急处理包，用于现场快速中和或抑制危险化学物质，减少次生灾害的发生。
+- **灾害现场化学分析设备**：开发便携式化学分析设备，如手持式FTIR（傅里叶变换红外光谱仪）和便携式XRF（X射线荧光光谱仪），用于灾害现场的即时化学分析，为应急决策提供科学依据。
+#### 地理学视角
+- **GIS支持下的应急资源调度**：构建应急资源数据库，包括救援队伍、医疗资源、物资储备等，通过GIS技术优化资源调度路径，提高应急响应的效率。
+- **模拟演练与评估**：利用GIS和仿真技术，进行灾害应急响应的模拟演练，评估不同情景下的应急响应效果，不断优化应急预案。
+#### 人工智能视角
+- **智能调度系统**：开发基于人工智能的智能调度系统，通过优化算法实时调整资源分配策略，提高应急响应的效率。
+- **自动决策支持**：利用深度学习和自然语言处理技术，开发自动决策支持系统，为应急指挥人员提供实时的决策建议。
+### 5. 恢复重建机制的社会经济影响评估与优化
+#### 生物学视角
+- **恢复重建中的社会经济与生态效益评估**：采用生态经济学方法，评估恢复重建措施对生态系统服务价值的影响。这包括对水资源管理、土壤保持、碳固定等方面效益的评估，确保恢复措施的多效益实现。
+#### 物理学视角
+- **灾害影响的量化分析**：利用物理学中的能量守恒、熵增原理等，对灾害的社会经济影响进行量化分析，评估灾害造成的直接和间接损失。
+#### 数学视角
+- **社会经济影响评估模型**：开发基于GIS的社会经济影响评估模型，考虑不同灾后重建方案对当地经济、社会、生态的影响，为政策制定提供科学依据。
+#### 化学视角
+- **环境修复技术**：研究和应用先进的环境修复技术，如光催化降解、生物修复和化学还原等方法，用于治理受污染的土地和水体，促进环境的自然恢复。
+- **化学品生命周期评估**：采用生命周期评估（LCA）方法，评估化学品在生产、使用和废弃过程中的环境和社会经济影响，为灾后化学品管理提供科学依据。
+#### 地理学视角
+- **空间规划与风险管理**：在灾后重建中，结合GIS技术，进行科学的空间规划，合理布局基础设施和居民区，强化防灾减灾设施的建设，降低未来灾害风险。
+- **可持续发展路径**：在重建过程中，注重可持续发展原则，保护自然环境，促进绿色经济的发展，提高社区的灾害韧性。
+#### 人工智能视角
+- **智能决策支持系统**：利用深度学习和自然语言处理技术，开发智能决策支持系统，为灾后重建提供科学依据和优化建议。
+- **动态评估与优化**：建立动态评估模型，根据灾后重建的进展和效果，不断优化重建方案，提高重建的科学性和可持续性。
+通过上述多学科合作，可以全面、高效、可靠地提升灾害预警与响应系统的性能，减少灾害带来的损失，促进社会的长期可持续发展。</t>
+  </si>
+  <si>
+    <t>**项目申请书**
+**项目名称**：灾害预警与响应系统的构建与优化
+**一、摘要**
+本项目旨在构建一个综合性的灾害预警与响应系统，通过集成先进的数据分析、机器学习算法及物联网技术，实现对多种自然灾害的实时监测、预警与快速响应。项目将重点解决现有灾害预警系统中存在的数据孤岛、预警精度不高、响应速度慢等问题，通过技术创新和机制优化，提高灾害防控的效率和准确性，为保障人民生命财产安全提供强有力的技术支撑。
+**二、研究背景和意义**
+随着全球气候变化的加剧，极端天气事件频发，自然灾害的发生频率和强度均呈现上升趋势。传统的灾害预警与响应系统由于技术手段有限，往往存在信息传递不及时、决策支持不足、资源调度效率低等问题，难以满足现代灾害防控的需求。近年来，人工智能技术的发展为灾害预警与响应提供了新的解决方案。通过构建智能化的灾害防控体系，可以有效提升灾害预警的准确性和响应的时效性，减少灾害造成的损失，具有重要的社会意义和经济价值。
+**三、研究内容**
+1. **多源数据融合技术研究**：研究并实现多种灾害相关数据（如气象数据、地质数据、历史灾害数据等）的高效采集与融合方法，构建全面的灾害信息数据库。
+2. **灾害预警模型构建**：基于深度学习和机器学习算法，开发适用于不同灾害类型的预警模型，提高预警的准确性和时效性。
+3. **灾害响应决策支持系统开发**：设计并实现一套灾害响应决策支持系统，提供灾害发生时的最优资源调度方案和人员疏散路径规划。
+4. **物联网技术在灾害监测中的应用**：研究物联网技术在灾害监测中的应用，开发低成本、高效率的灾害监测设备，实现灾害的实时监测。
+**四、拟解决的科学问题**
+1. **数据融合与处理技术**：如何高效地融合多源异构的灾害相关数据，构建统一的数据处理平台。
+2. **灾害预警模型的精度与泛化能力**：如何提高灾害预警模型的预测精度，并确保其在不同灾害场景下的泛化能力。
+3. **灾害响应决策的快速生成**：如何在灾害发生时快速生成最优的资源调度方案和人员疏散路径。
+4. **物联网设备的可靠性与成本控制**：如何设计和开发高可靠性、低功耗、低成本的灾害监测设备。
+**五、拟提出的技术路线**
+1. **多源数据融合技术路线**：
+   - **数据采集**：通过卫星遥感、地面传感器网络、社交媒体等多渠道收集灾害相关数据。
+   - **数据预处理**：对收集到的多源数据进行清洗、去噪、标准化处理，确保数据质量。
+   - **数据融合**：采用数据融合算法（如卡尔曼滤波、贝叶斯网络等）将多源数据进行融合，形成统一的数据视图。
+   - **数据库构建**：将融合后的数据存储于分布式数据库中，支持高效的数据查询和分析。
+2. **灾害预警模型构建技术路线**：
+   - **特征工程**：从融合后的数据中提取关键特征，包括气象参数、地质条件、历史灾害记录等。
+   - **模型选择**：根据不同的灾害类型选择合适的机器学习算法（如随机森林、支持向量机、深度神经网络等）。
+   - **模型训练**：利用历史灾害数据对模型进行训练，优化模型参数。
+   - **模型验证**：通过交叉验证和实际案例测试，验证模型的预测精度和泛化能力。
+   - **模型部署**：将训练好的模型部署到云端，支持实时数据输入和预警输出。
+3. **灾害响应决策支持系统开发技术路线**：
+   - **需求分析**：与灾害管理部门合作，明确灾害响应决策支持系统的功能需求。
+   - **系统设计**：设计系统的架构，包括数据处理模块、模型推理模块、决策支持模块等。
+   - **算法开发**：开发资源调度算法（如遗传算法、粒子群优化算法等）和人员疏散路径规划算法（如A*算法、Dijkstra算法等）。
+   - **系统实现**：采用微服务架构实现系统的各个模块，确保系统的高可用性和可扩展性。
+   - **系统测试**：通过模拟灾害场景，测试系统的响应速度和决策效果。
+4. **物联网技术在灾害监测中的应用技术路线**：
+   - **设备设计**：设计低成本、低功耗的灾害监测设备，包括传感器、通信模块、电源模块等。
+   - **设备部署**：选择合适的监测点，部署监测设备，确保覆盖关键区域。
+   - **数据传输**：采用低功耗广域网技术（如LoRa、NB-IoT等）实现监测数据的实时传输。
+   - **数据分析**：对收集到的监测数据进行实时分析，及时发现异常情况并触发预警。
+   - **设备维护**：建立设备维护机制，定期检查设备的工作状态，确保设备的长期稳定运行。
+**六、预期成果**
+1. **技术成果**：
+   - 构建一个全面的灾害信息数据库，支持多源数据的高效融合与处理。
+   - 开发一套高精度的灾害预警模型，能够实时预测多种灾害的发生。
+   - 实现一个功能完善的灾害响应决策支持系统，提供灾害发生时的最优资源调度方案和人员疏散路径规划。
+   - 设计并部署一批低成本、高效率的灾害监测设备，实现灾害的实时监测。
+2. **应用成果**：
+   - 在多个地区和场景中推广应用，提高灾害预警的准确性和响应的时效性。
+   - 与政府机构、企事业单位合作，建立灾害预警与响应的标准化流程，提升整体防控能力。
+   - 通过案例验证，展示项目的实际应用效果，促进技术的进一步推广和优化。
+3. **社会经济影响**：
+   - 减少自然灾害造成的人员伤亡和经济损失，保障社会的稳定和可持续发展。
+   - 提升公众对灾害防控的认识和参与度，形成良好的社会氛围。
+通过上述研究内容和技术路线的实施，本项目将为灾害预警与响应提供一个系统性的、具备操作性的科学解决方案，为保障人民生命财产安全作出重要贡献。</t>
   </si>
 </sst>
 </file>
@@ -846,7 +937,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -874,10 +965,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -888,24 +979,24 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -913,13 +1004,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -927,13 +1018,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -944,10 +1035,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -955,13 +1046,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -969,13 +1060,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -983,27 +1074,27 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1011,13 +1102,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1025,83 +1116,83 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1112,10 +1203,24 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
